--- a/PythonApplication1/2022_Wholesale_Prices.xlsx
+++ b/PythonApplication1/2022_Wholesale_Prices.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sheet1'!$A$1:$AA$24</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sheet1'!$A$1:$AB$24</definedName>
   </definedNames>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,12 +35,6 @@
       <name val="Arial"/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="MingLiu"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="18"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -60,47 +54,58 @@
       <sz val="20"/>
     </font>
     <font>
-      <name val="MingLiu"/>
+      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="25"/>
     </font>
     <font>
-      <name val="MingLiu"/>
+      <name val="Calibri"/>
       <color theme="1"/>
       <sz val="25"/>
     </font>
     <font>
-      <name val="MingLiu"/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="23"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="22"/>
     </font>
     <font>
-      <name val="MingLiu"/>
-      <color theme="1"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="MingLiu"/>
+      <name val="Calibri"/>
       <color theme="1"/>
       <sz val="24"/>
-    </font>
-    <font>
-      <name val="MingLiu"/>
-      <color theme="1"/>
-      <sz val="23"/>
-    </font>
-    <font>
-      <name val="MingLiu"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="24"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <color theme="1"/>
-      <sz val="20"/>
     </font>
   </fonts>
   <fills count="4">
@@ -660,12 +665,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="28" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="35" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -686,215 +690,217 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="39" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="38" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="15" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="32" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="25" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="34" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="26" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="10" numFmtId="16" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="19" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="29" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="21" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="38" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="8" numFmtId="16" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="19" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="40" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="42" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="41" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="43" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="31" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="37" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="36" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="20" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="24" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="23" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="31" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="3" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="37" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="38" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="18" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="24" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="20" fillId="3" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="36" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="3" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="35" fillId="2" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="39" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="23" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="40" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="42" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="41" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="43" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="28" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="35" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="17" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="28" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="32" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="33" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="25" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="34" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="18" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1273,2447 +1279,2409 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="30.7109375"/>
-    <col customWidth="1" max="6" min="3" width="12.7109375"/>
-    <col customWidth="1" max="7" min="7" width="30.7109375"/>
-    <col customWidth="1" max="27" min="8" width="12.7109375"/>
+    <col customWidth="1" max="3" min="3" width="30.7109375"/>
+    <col customWidth="1" max="7" min="4" width="12.7109375"/>
+    <col customWidth="1" max="8" min="8" width="30.7109375"/>
+    <col customWidth="1" max="28" min="9" width="12.7109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="45" r="1">
-      <c r="B1" s="17" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>3186 Strasburg Road</t>
         </is>
       </c>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="D1" s="14" t="n"/>
+      <c r="E1" s="14" t="n"/>
+      <c r="F1" s="14" t="n"/>
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>(610)383-6818</t>
         </is>
       </c>
-      <c r="H1" s="17" t="n"/>
-      <c r="I1" s="17" t="n"/>
-      <c r="J1" s="17" t="n"/>
-      <c r="K1" s="17" t="n"/>
-      <c r="L1" s="17" t="n"/>
-      <c r="M1" s="17" t="n"/>
-      <c r="N1" s="17" t="n"/>
-      <c r="O1" s="17" t="n"/>
-      <c r="P1" s="17" t="n"/>
-      <c r="Q1" s="17" t="n"/>
-      <c r="R1" s="17" t="n"/>
-      <c r="S1" s="19" t="inlineStr">
+      <c r="I1" s="14" t="n"/>
+      <c r="J1" s="14" t="n"/>
+      <c r="K1" s="14" t="n"/>
+      <c r="L1" s="14" t="n"/>
+      <c r="M1" s="14" t="n"/>
+      <c r="N1" s="14" t="n"/>
+      <c r="O1" s="14" t="n"/>
+      <c r="P1" s="14" t="n"/>
+      <c r="Q1" s="14" t="n"/>
+      <c r="R1" s="14" t="n"/>
+      <c r="S1" s="14" t="inlineStr">
         <is>
           <t>2022 Wholesale Prices</t>
         </is>
       </c>
-      <c r="T1" s="19" t="n"/>
-      <c r="U1" s="19" t="n"/>
-      <c r="V1" s="19" t="n"/>
-      <c r="W1" s="14" t="n"/>
-      <c r="X1" s="14" t="n"/>
-      <c r="Y1" s="14" t="n"/>
-      <c r="Z1" s="14" t="n"/>
+      <c r="T1" s="16" t="inlineStr">
+        <is>
+          <t>2022 Wholesale Prices</t>
+        </is>
+      </c>
+      <c r="U1" s="16" t="n"/>
+      <c r="V1" s="16" t="n"/>
+      <c r="W1" s="16" t="n"/>
+      <c r="X1" s="13" t="n"/>
+      <c r="Y1" s="13" t="n"/>
+      <c r="Z1" s="13" t="n"/>
       <c r="AA1" s="13" t="n"/>
+      <c r="AB1" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="44.25" r="2">
-      <c r="B2" s="19" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>Coatesville, Pa 19320</t>
         </is>
       </c>
-      <c r="C2" s="19" t="n"/>
-      <c r="D2" s="19" t="n"/>
-      <c r="E2" s="19" t="n"/>
-      <c r="F2" s="1" t="n"/>
-      <c r="G2" s="19" t="inlineStr">
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="16" t="inlineStr">
         <is>
           <t>fax(610)383-7401</t>
         </is>
       </c>
-      <c r="H2" s="19" t="n"/>
-      <c r="I2" s="19" t="n"/>
-      <c r="J2" s="19" t="n"/>
-      <c r="K2" s="17" t="n"/>
-      <c r="L2" s="17" t="n"/>
-      <c r="M2" s="17" t="n"/>
-      <c r="N2" s="17" t="n"/>
-      <c r="O2" s="17" t="n"/>
-      <c r="P2" s="17" t="n"/>
-      <c r="Q2" s="17" t="n"/>
-      <c r="R2" s="17" t="n"/>
-      <c r="S2" s="17" t="n"/>
-      <c r="T2" s="17" t="n"/>
-      <c r="U2" s="17" t="n"/>
-      <c r="V2" s="17" t="n"/>
-      <c r="W2" s="13" t="n"/>
-      <c r="X2" s="13" t="n"/>
-      <c r="Y2" s="13" t="n"/>
-      <c r="Z2" s="13" t="n"/>
-      <c r="AA2" s="13" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="14" t="n"/>
+      <c r="M2" s="14" t="n"/>
+      <c r="N2" s="14" t="n"/>
+      <c r="O2" s="14" t="n"/>
+      <c r="P2" s="14" t="n"/>
+      <c r="Q2" s="14" t="n"/>
+      <c r="R2" s="14" t="n"/>
+      <c r="S2" s="14" t="n"/>
+      <c r="T2" s="14" t="n"/>
+      <c r="U2" s="14" t="n"/>
+      <c r="V2" s="14" t="n"/>
+      <c r="W2" s="14" t="n"/>
+      <c r="X2" s="12" t="n"/>
+      <c r="Y2" s="12" t="n"/>
+      <c r="Z2" s="12" t="n"/>
+      <c r="AA2" s="12" t="n"/>
+      <c r="AB2" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="49" t="inlineStr">
         <is>
           <t>Picked Up</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="15" t="inlineStr">
+      <c r="D3" s="44" t="n"/>
+      <c r="E3" s="45" t="n"/>
+      <c r="F3" s="45" t="n"/>
+      <c r="G3" s="46" t="n"/>
+      <c r="H3" s="49" t="inlineStr">
         <is>
           <t>Delivered</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
-      <c r="N3" s="5" t="n"/>
-      <c r="O3" s="5" t="n"/>
-      <c r="P3" s="5" t="n"/>
-      <c r="Q3" s="5" t="n"/>
-      <c r="R3" s="5" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="5" t="n"/>
-      <c r="U3" s="5" t="n"/>
-      <c r="V3" s="5" t="n"/>
-      <c r="W3" s="5" t="n"/>
-      <c r="X3" s="5" t="n"/>
-      <c r="Y3" s="5" t="n"/>
-      <c r="Z3" s="5" t="n"/>
-      <c r="AA3" s="5" t="n"/>
+      <c r="I3" s="44" t="n"/>
+      <c r="J3" s="45" t="n"/>
+      <c r="K3" s="45" t="n"/>
+      <c r="L3" s="45" t="n"/>
+      <c r="M3" s="45" t="n"/>
+      <c r="N3" s="45" t="n"/>
+      <c r="O3" s="45" t="n"/>
+      <c r="P3" s="45" t="n"/>
+      <c r="Q3" s="45" t="n"/>
+      <c r="R3" s="45" t="n"/>
+      <c r="S3" s="45" t="n"/>
+      <c r="T3" s="45" t="n"/>
+      <c r="U3" s="45" t="n"/>
+      <c r="V3" s="45" t="n"/>
+      <c r="W3" s="45" t="n"/>
+      <c r="X3" s="45" t="n"/>
+      <c r="Y3" s="45" t="n"/>
+      <c r="Z3" s="45" t="n"/>
+      <c r="AA3" s="45" t="n"/>
+      <c r="AB3" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="4">
-      <c r="A4" s="6" t="n"/>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="50" t="inlineStr">
         <is>
           <t>Cu. Yds</t>
         </is>
       </c>
-      <c r="C4" s="27" t="inlineStr">
+      <c r="D4" s="47" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
       </c>
-      <c r="D4" s="27" t="inlineStr">
+      <c r="E4" s="47" t="inlineStr">
         <is>
           <t>4-6</t>
         </is>
       </c>
-      <c r="E4" s="27" t="inlineStr">
+      <c r="F4" s="47" t="inlineStr">
         <is>
           <t>7-9</t>
         </is>
       </c>
-      <c r="F4" s="28" t="inlineStr">
+      <c r="G4" s="48" t="inlineStr">
         <is>
           <t>10+</t>
         </is>
       </c>
-      <c r="G4" s="16" t="inlineStr">
+      <c r="H4" s="50" t="inlineStr">
         <is>
           <t>Cu. Yds.</t>
         </is>
       </c>
-      <c r="H4" s="28" t="n">
+      <c r="I4" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="28" t="n">
+      <c r="J4" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="28" t="n">
+      <c r="K4" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="28" t="n">
+      <c r="L4" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="L4" s="28" t="n">
+      <c r="M4" s="48" t="n">
         <v>6</v>
       </c>
-      <c r="M4" s="28" t="n">
+      <c r="N4" s="48" t="n">
         <v>7</v>
       </c>
-      <c r="N4" s="28" t="n">
+      <c r="O4" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="O4" s="28" t="n">
+      <c r="P4" s="48" t="n">
         <v>9</v>
       </c>
-      <c r="P4" s="28" t="n">
+      <c r="Q4" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="Q4" s="28" t="n">
+      <c r="R4" s="48" t="n">
         <v>11</v>
       </c>
-      <c r="R4" s="28" t="n">
+      <c r="S4" s="48" t="n">
         <v>12</v>
       </c>
-      <c r="S4" s="28" t="n">
+      <c r="T4" s="48" t="n">
         <v>13</v>
       </c>
-      <c r="T4" s="28" t="n">
+      <c r="U4" s="48" t="n">
         <v>14</v>
       </c>
-      <c r="U4" s="28" t="n">
+      <c r="V4" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="V4" s="28" t="n">
+      <c r="W4" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="W4" s="28" t="n">
+      <c r="X4" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="X4" s="28" t="n">
+      <c r="Y4" s="48" t="n">
         <v>25</v>
       </c>
-      <c r="Y4" s="28" t="n">
+      <c r="Z4" s="48" t="n">
         <v>30</v>
       </c>
-      <c r="Z4" s="28" t="n">
+      <c r="AA4" s="48" t="n">
         <v>40</v>
       </c>
-      <c r="AA4" s="28" t="n">
+      <c r="AB4" s="48" t="n">
         <v>50</v>
       </c>
-      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="5">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="48" t="inlineStr">
-        <is>
-          <t>Premium Bark</t>
-        </is>
-      </c>
-      <c r="C5" s="75" t="inlineStr">
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="51" t="inlineStr">
         <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="D5" s="75" t="inlineStr">
+      <c r="D5" s="32" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="E5" s="75" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="F5" s="76" t="inlineStr">
+      <c r="F5" s="32" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="G5" s="49" t="inlineStr">
-        <is>
-          <t>Premium Bark</t>
-        </is>
-      </c>
-      <c r="H5" s="20" t="inlineStr">
+      <c r="G5" s="33" t="n"/>
+      <c r="H5" s="66" t="inlineStr">
         <is>
           <t>50.75</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="17" t="inlineStr">
         <is>
           <t>44.75</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="17" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="17" t="inlineStr">
         <is>
           <t>39.00</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="17" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="M5" s="20" t="inlineStr">
+      <c r="M5" s="17" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="N5" s="20" t="inlineStr">
+      <c r="N5" s="17" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="O5" s="20" t="inlineStr">
+      <c r="O5" s="17" t="inlineStr">
         <is>
           <t>35.50</t>
         </is>
       </c>
-      <c r="P5" s="20" t="inlineStr">
+      <c r="P5" s="17" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="Q5" s="20" t="inlineStr">
+      <c r="Q5" s="17" t="inlineStr">
         <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="R5" s="20" t="inlineStr">
+      <c r="R5" s="17" t="inlineStr">
         <is>
           <t>33.00</t>
         </is>
       </c>
-      <c r="S5" s="20" t="inlineStr">
+      <c r="S5" s="17" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="T5" s="20" t="inlineStr">
+      <c r="T5" s="17" t="inlineStr">
         <is>
           <t>32.00</t>
         </is>
       </c>
-      <c r="U5" s="20" t="inlineStr">
+      <c r="U5" s="17" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="V5" s="20" t="inlineStr">
+      <c r="V5" s="17" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="W5" s="20" t="inlineStr">
+      <c r="W5" s="17" t="inlineStr">
         <is>
           <t>30.25</t>
         </is>
       </c>
-      <c r="X5" s="20" t="inlineStr">
+      <c r="X5" s="17" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="Y5" s="20" t="n"/>
-      <c r="Z5" s="20" t="n"/>
-      <c r="AA5" s="56" t="n"/>
+      <c r="Y5" s="17" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="Z5" s="17" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="AA5" s="17" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="AB5" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="25" t="inlineStr">
-        <is>
-          <t>Bark Blend</t>
-        </is>
-      </c>
-      <c r="C6" s="77" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="52" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="D6" s="77" t="inlineStr">
+      <c r="D6" s="34" t="inlineStr">
         <is>
           <t>22.25</t>
         </is>
       </c>
-      <c r="E6" s="77" t="inlineStr">
+      <c r="E6" s="34" t="inlineStr">
         <is>
           <t>20.75</t>
         </is>
       </c>
-      <c r="F6" s="58" t="inlineStr">
+      <c r="F6" s="34" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="G6" s="44" t="inlineStr">
-        <is>
-          <t>Bark Blend</t>
-        </is>
-      </c>
-      <c r="H6" s="57" t="inlineStr">
+      <c r="G6" s="20" t="n"/>
+      <c r="H6" s="67" t="inlineStr">
         <is>
           <t>46.75</t>
         </is>
       </c>
-      <c r="I6" s="57" t="inlineStr">
+      <c r="I6" s="19" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="J6" s="57" t="inlineStr">
+      <c r="J6" s="19" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="K6" s="57" t="inlineStr">
+      <c r="K6" s="19" t="inlineStr">
         <is>
           <t>35.00</t>
         </is>
       </c>
-      <c r="L6" s="57" t="inlineStr">
+      <c r="L6" s="19" t="inlineStr">
         <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="M6" s="57" t="inlineStr">
+      <c r="M6" s="19" t="inlineStr">
         <is>
           <t>32.00</t>
         </is>
       </c>
-      <c r="N6" s="57" t="inlineStr">
+      <c r="N6" s="19" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="O6" s="57" t="inlineStr">
+      <c r="O6" s="19" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="P6" s="57" t="inlineStr">
+      <c r="P6" s="19" t="inlineStr">
         <is>
           <t>30.50</t>
         </is>
       </c>
-      <c r="Q6" s="57" t="inlineStr">
+      <c r="Q6" s="19" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="R6" s="57" t="inlineStr">
+      <c r="R6" s="19" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="S6" s="57" t="inlineStr">
+      <c r="S6" s="19" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="T6" s="57" t="inlineStr">
+      <c r="T6" s="19" t="inlineStr">
         <is>
           <t>28.00</t>
         </is>
       </c>
-      <c r="U6" s="57" t="inlineStr">
+      <c r="U6" s="19" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="V6" s="57" t="inlineStr">
+      <c r="V6" s="19" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="W6" s="57" t="inlineStr">
+      <c r="W6" s="19" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="X6" s="57" t="inlineStr">
+      <c r="X6" s="19" t="inlineStr">
         <is>
           <t>25.25</t>
         </is>
       </c>
-      <c r="Y6" s="57" t="n"/>
-      <c r="Z6" s="57" t="n"/>
-      <c r="AA6" s="58" t="n"/>
+      <c r="Y6" s="19" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="Z6" s="19" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="AA6" s="19" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="AB6" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Natural Products</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="inlineStr">
-        <is>
-          <t>Nature's Blend</t>
-        </is>
-      </c>
-      <c r="C7" s="78" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="53" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="D7" s="78" t="inlineStr">
+      <c r="D7" s="35" t="inlineStr">
         <is>
           <t>18.25</t>
         </is>
       </c>
-      <c r="E7" s="78" t="inlineStr">
+      <c r="E7" s="35" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="F7" s="60" t="inlineStr">
+      <c r="F7" s="35" t="inlineStr">
         <is>
           <t>16.00</t>
         </is>
       </c>
-      <c r="G7" s="45" t="inlineStr">
-        <is>
-          <t>Nature's Blend</t>
-        </is>
-      </c>
-      <c r="H7" s="59" t="inlineStr">
+      <c r="G7" s="22" t="n"/>
+      <c r="H7" s="68" t="inlineStr">
         <is>
           <t>42.75</t>
         </is>
       </c>
-      <c r="I7" s="59" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="J7" s="59" t="inlineStr">
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="K7" s="59" t="inlineStr">
+      <c r="K7" s="21" t="inlineStr">
         <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="L7" s="59" t="inlineStr">
+      <c r="L7" s="21" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="M7" s="59" t="inlineStr">
+      <c r="M7" s="21" t="inlineStr">
         <is>
           <t>28.00</t>
         </is>
       </c>
-      <c r="N7" s="59" t="inlineStr">
+      <c r="N7" s="21" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="O7" s="59" t="inlineStr">
+      <c r="O7" s="21" t="inlineStr">
         <is>
           <t>27.50</t>
         </is>
       </c>
-      <c r="P7" s="59" t="inlineStr">
+      <c r="P7" s="21" t="inlineStr">
         <is>
           <t>26.50</t>
         </is>
       </c>
-      <c r="Q7" s="59" t="inlineStr">
+      <c r="Q7" s="21" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="R7" s="59" t="inlineStr">
+      <c r="R7" s="21" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="S7" s="59" t="inlineStr">
+      <c r="S7" s="21" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="T7" s="59" t="inlineStr">
+      <c r="T7" s="21" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="U7" s="59" t="inlineStr">
+      <c r="U7" s="21" t="inlineStr">
         <is>
           <t>23.75</t>
         </is>
       </c>
-      <c r="V7" s="59" t="inlineStr">
+      <c r="V7" s="21" t="inlineStr">
         <is>
           <t>23.25</t>
         </is>
       </c>
-      <c r="W7" s="59" t="inlineStr">
+      <c r="W7" s="21" t="inlineStr">
         <is>
           <t>22.25</t>
         </is>
       </c>
-      <c r="X7" s="59" t="inlineStr">
+      <c r="X7" s="21" t="inlineStr">
         <is>
           <t>21.25</t>
         </is>
       </c>
-      <c r="Y7" s="59" t="n"/>
-      <c r="Z7" s="59" t="n"/>
-      <c r="AA7" s="60" t="n"/>
+      <c r="Y7" s="21" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="Z7" s="21" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="AA7" s="21" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="AB7" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="75" r="8">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="23" t="inlineStr">
-        <is>
-          <t>Beauty Bark</t>
-        </is>
-      </c>
-      <c r="C8" s="79" t="inlineStr">
+    <row customHeight="1" ht="56.25" r="8">
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="54" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="D8" s="79" t="inlineStr">
+      <c r="D8" s="83" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="E8" s="79" t="inlineStr">
+      <c r="E8" s="83" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="F8" s="80" t="inlineStr">
+      <c r="F8" s="83" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="G8" s="47" t="inlineStr">
-        <is>
-          <t>Beauty Bark</t>
-        </is>
-      </c>
-      <c r="H8" s="61" t="inlineStr">
+      <c r="G8" s="84" t="n"/>
+      <c r="H8" s="69" t="inlineStr">
         <is>
           <t>56.50</t>
         </is>
       </c>
-      <c r="I8" s="62" t="inlineStr">
+      <c r="I8" s="85" t="inlineStr">
         <is>
           <t>50.25</t>
         </is>
       </c>
-      <c r="J8" s="62" t="inlineStr">
+      <c r="J8" s="86" t="inlineStr">
         <is>
           <t>46.25</t>
         </is>
       </c>
-      <c r="K8" s="62" t="inlineStr">
+      <c r="K8" s="86" t="inlineStr">
         <is>
           <t>44.50</t>
         </is>
       </c>
-      <c r="L8" s="62" t="inlineStr">
+      <c r="L8" s="86" t="inlineStr">
         <is>
           <t>43.25</t>
         </is>
       </c>
-      <c r="M8" s="62" t="inlineStr">
+      <c r="M8" s="86" t="inlineStr">
         <is>
           <t>41.00</t>
         </is>
       </c>
-      <c r="N8" s="62" t="inlineStr">
+      <c r="N8" s="86" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="O8" s="62" t="inlineStr">
+      <c r="O8" s="86" t="inlineStr">
         <is>
           <t>40.50</t>
         </is>
       </c>
-      <c r="P8" s="62" t="inlineStr">
+      <c r="P8" s="86" t="inlineStr">
         <is>
           <t>39.50</t>
         </is>
       </c>
-      <c r="Q8" s="62" t="inlineStr">
+      <c r="Q8" s="86" t="inlineStr">
         <is>
           <t>38.75</t>
         </is>
       </c>
-      <c r="R8" s="62" t="inlineStr">
+      <c r="R8" s="86" t="inlineStr">
         <is>
           <t>38.00</t>
         </is>
       </c>
-      <c r="S8" s="62" t="inlineStr">
+      <c r="S8" s="86" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="T8" s="62" t="inlineStr">
+      <c r="T8" s="86" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="U8" s="62" t="inlineStr">
+      <c r="U8" s="86" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="V8" s="62" t="inlineStr">
+      <c r="V8" s="86" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="W8" s="62" t="inlineStr">
+      <c r="W8" s="86" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="X8" s="62" t="inlineStr">
+      <c r="X8" s="86" t="inlineStr">
         <is>
           <t>34.25</t>
         </is>
       </c>
-      <c r="Y8" s="62" t="n"/>
-      <c r="Z8" s="62" t="n"/>
-      <c r="AA8" s="63" t="n"/>
+      <c r="Y8" s="86" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="Z8" s="86" t="inlineStr">
+        <is>
+          <t>32.75</t>
+        </is>
+      </c>
+      <c r="AA8" s="86" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="AB8" s="87" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="9">
-      <c r="A9" s="5" t="n"/>
-      <c r="B9" s="39" t="inlineStr">
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="55" t="inlineStr">
         <is>
           <t>(Black, &amp; Brown)</t>
         </is>
       </c>
-      <c r="C9" s="64" t="n"/>
-      <c r="D9" s="64" t="n"/>
-      <c r="E9" s="64" t="n"/>
-      <c r="F9" s="65" t="n"/>
-      <c r="G9" s="40" t="inlineStr">
+      <c r="D9" s="23" t="n"/>
+      <c r="E9" s="23" t="n"/>
+      <c r="F9" s="23" t="n"/>
+      <c r="G9" s="24" t="n"/>
+      <c r="H9" s="70" t="inlineStr">
         <is>
           <t>(Black &amp; Brown)</t>
         </is>
       </c>
-      <c r="H9" s="64" t="n"/>
-      <c r="I9" s="64" t="n"/>
-      <c r="J9" s="64" t="n"/>
-      <c r="K9" s="64" t="n"/>
-      <c r="L9" s="64" t="n"/>
-      <c r="M9" s="64" t="n"/>
-      <c r="N9" s="64" t="n"/>
-      <c r="O9" s="64" t="n"/>
-      <c r="P9" s="64" t="n"/>
-      <c r="Q9" s="64" t="n"/>
-      <c r="R9" s="64" t="n"/>
-      <c r="S9" s="64" t="n"/>
-      <c r="T9" s="64" t="n"/>
-      <c r="U9" s="64" t="n"/>
-      <c r="V9" s="64" t="n"/>
-      <c r="W9" s="64" t="n"/>
-      <c r="X9" s="64" t="n"/>
-      <c r="Y9" s="64" t="n"/>
-      <c r="Z9" s="64" t="n"/>
-      <c r="AA9" s="65" t="n"/>
+      <c r="I9" s="23" t="n"/>
+      <c r="J9" s="23" t="n"/>
+      <c r="K9" s="23" t="n"/>
+      <c r="L9" s="23" t="n"/>
+      <c r="M9" s="23" t="n"/>
+      <c r="N9" s="23" t="n"/>
+      <c r="O9" s="23" t="n"/>
+      <c r="P9" s="23" t="n"/>
+      <c r="Q9" s="23" t="n"/>
+      <c r="R9" s="23" t="n"/>
+      <c r="S9" s="23" t="n"/>
+      <c r="T9" s="23" t="n"/>
+      <c r="U9" s="23" t="n"/>
+      <c r="V9" s="23" t="n"/>
+      <c r="W9" s="23" t="n"/>
+      <c r="X9" s="23" t="n"/>
+      <c r="Y9" s="23" t="n"/>
+      <c r="Z9" s="23" t="n"/>
+      <c r="AA9" s="23" t="n"/>
+      <c r="AB9" s="24" t="n"/>
     </row>
-    <row customHeight="1" ht="75" r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Dyed Products</t>
-        </is>
-      </c>
-      <c r="B10" s="22" t="inlineStr">
-        <is>
-          <t>Dyed Mulch</t>
-        </is>
-      </c>
-      <c r="C10" s="66" t="inlineStr">
+    <row customHeight="1" ht="56.25" r="10">
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="56" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="D10" s="66" t="inlineStr">
+      <c r="D10" s="88" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="E10" s="66" t="inlineStr">
+      <c r="E10" s="88" t="inlineStr">
         <is>
           <t>22.75</t>
         </is>
       </c>
-      <c r="F10" s="67" t="inlineStr">
+      <c r="F10" s="88" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="G10" s="46" t="inlineStr">
-        <is>
-          <t>Dyed Mulch</t>
-        </is>
-      </c>
-      <c r="H10" s="66" t="inlineStr">
+      <c r="G10" s="89" t="n"/>
+      <c r="H10" s="71" t="inlineStr">
         <is>
           <t>49.50</t>
         </is>
       </c>
-      <c r="I10" s="66" t="inlineStr">
+      <c r="I10" s="88" t="inlineStr">
         <is>
           <t>43.25</t>
         </is>
       </c>
-      <c r="J10" s="66" t="inlineStr">
+      <c r="J10" s="88" t="inlineStr">
         <is>
           <t>39.25</t>
         </is>
       </c>
-      <c r="K10" s="66" t="inlineStr">
+      <c r="K10" s="88" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="L10" s="66" t="inlineStr">
+      <c r="L10" s="88" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="M10" s="66" t="inlineStr">
+      <c r="M10" s="88" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="N10" s="66" t="inlineStr">
+      <c r="N10" s="88" t="inlineStr">
         <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="O10" s="66" t="inlineStr">
+      <c r="O10" s="88" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="P10" s="66" t="inlineStr">
+      <c r="P10" s="88" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="Q10" s="66" t="inlineStr">
+      <c r="Q10" s="88" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="R10" s="66" t="inlineStr">
+      <c r="R10" s="88" t="inlineStr">
         <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="S10" s="66" t="inlineStr">
+      <c r="S10" s="88" t="inlineStr">
         <is>
           <t>30.50</t>
         </is>
       </c>
-      <c r="T10" s="66" t="inlineStr">
+      <c r="T10" s="88" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="U10" s="66" t="inlineStr">
+      <c r="U10" s="88" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="V10" s="66" t="inlineStr">
+      <c r="V10" s="88" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="W10" s="66" t="inlineStr">
+      <c r="W10" s="88" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="X10" s="66" t="inlineStr">
+      <c r="X10" s="88" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="Y10" s="66" t="n"/>
-      <c r="Z10" s="66" t="n"/>
-      <c r="AA10" s="67" t="n"/>
+      <c r="Y10" s="88" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="Z10" s="88" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="AA10" s="88" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="AB10" s="89" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="37" t="inlineStr">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="57" t="inlineStr">
         <is>
           <t>(Black, Brown &amp; Red)</t>
         </is>
       </c>
-      <c r="C11" s="68" t="n"/>
-      <c r="D11" s="68" t="n"/>
-      <c r="E11" s="68" t="n"/>
-      <c r="F11" s="69" t="n"/>
-      <c r="G11" s="38" t="inlineStr">
+      <c r="D11" s="25" t="n"/>
+      <c r="E11" s="25" t="n"/>
+      <c r="F11" s="25" t="n"/>
+      <c r="G11" s="26" t="n"/>
+      <c r="H11" s="72" t="inlineStr">
         <is>
           <t>(Black, Brown, &amp; Red)</t>
         </is>
       </c>
-      <c r="H11" s="68" t="n"/>
-      <c r="I11" s="68" t="n"/>
-      <c r="J11" s="68" t="n"/>
-      <c r="K11" s="68" t="n"/>
-      <c r="L11" s="68" t="n"/>
-      <c r="M11" s="68" t="n"/>
-      <c r="N11" s="68" t="n"/>
-      <c r="O11" s="68" t="n"/>
-      <c r="P11" s="68" t="n"/>
-      <c r="Q11" s="68" t="n"/>
-      <c r="R11" s="68" t="n"/>
-      <c r="S11" s="68" t="n"/>
-      <c r="T11" s="68" t="n"/>
-      <c r="U11" s="68" t="n"/>
-      <c r="V11" s="68" t="n"/>
-      <c r="W11" s="68" t="n"/>
-      <c r="X11" s="68" t="n"/>
-      <c r="Y11" s="68" t="n"/>
-      <c r="Z11" s="68" t="n"/>
-      <c r="AA11" s="69" t="n"/>
+      <c r="I11" s="25" t="n"/>
+      <c r="J11" s="25" t="n"/>
+      <c r="K11" s="25" t="n"/>
+      <c r="L11" s="25" t="n"/>
+      <c r="M11" s="25" t="n"/>
+      <c r="N11" s="25" t="n"/>
+      <c r="O11" s="25" t="n"/>
+      <c r="P11" s="25" t="n"/>
+      <c r="Q11" s="25" t="n"/>
+      <c r="R11" s="25" t="n"/>
+      <c r="S11" s="25" t="n"/>
+      <c r="T11" s="25" t="n"/>
+      <c r="U11" s="25" t="n"/>
+      <c r="V11" s="25" t="n"/>
+      <c r="W11" s="25" t="n"/>
+      <c r="X11" s="25" t="n"/>
+      <c r="Y11" s="25" t="n"/>
+      <c r="Z11" s="25" t="n"/>
+      <c r="AA11" s="25" t="n"/>
+      <c r="AB11" s="26" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="35" t="inlineStr">
-        <is>
-          <t>Safe Cover</t>
-        </is>
-      </c>
-      <c r="C12" s="81" t="inlineStr">
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="58" t="inlineStr">
         <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="D12" s="81" t="inlineStr">
+      <c r="D12" s="36" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E12" s="81" t="inlineStr">
+      <c r="E12" s="36" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="F12" s="71" t="inlineStr">
+      <c r="F12" s="36" t="inlineStr">
         <is>
           <t>21.00</t>
         </is>
       </c>
-      <c r="G12" s="42" t="inlineStr">
-        <is>
-          <t>Safe Cover</t>
-        </is>
-      </c>
-      <c r="H12" s="70" t="inlineStr">
+      <c r="G12" s="28" t="n"/>
+      <c r="H12" s="73" t="inlineStr">
         <is>
           <t>47.50</t>
         </is>
       </c>
-      <c r="I12" s="70" t="inlineStr">
+      <c r="I12" s="27" t="inlineStr">
         <is>
           <t>41.25</t>
         </is>
       </c>
-      <c r="J12" s="70" t="inlineStr">
+      <c r="J12" s="27" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="K12" s="70" t="inlineStr">
+      <c r="K12" s="27" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="L12" s="70" t="inlineStr">
+      <c r="L12" s="27" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="M12" s="70" t="inlineStr">
+      <c r="M12" s="27" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="N12" s="70" t="inlineStr">
+      <c r="N12" s="27" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="O12" s="70" t="inlineStr">
+      <c r="O12" s="27" t="inlineStr">
         <is>
           <t>32.25</t>
         </is>
       </c>
-      <c r="P12" s="70" t="inlineStr">
+      <c r="P12" s="27" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="Q12" s="70" t="inlineStr">
+      <c r="Q12" s="27" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="R12" s="70" t="inlineStr">
+      <c r="R12" s="27" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="S12" s="70" t="inlineStr">
+      <c r="S12" s="27" t="inlineStr">
         <is>
           <t>29.50</t>
         </is>
       </c>
-      <c r="T12" s="70" t="inlineStr">
+      <c r="T12" s="27" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="U12" s="70" t="inlineStr">
+      <c r="U12" s="27" t="inlineStr">
         <is>
           <t>28.75</t>
         </is>
       </c>
-      <c r="V12" s="70" t="inlineStr">
+      <c r="V12" s="27" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="W12" s="70" t="inlineStr">
+      <c r="W12" s="27" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="X12" s="70" t="inlineStr">
+      <c r="X12" s="27" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="Y12" s="70" t="n"/>
-      <c r="Z12" s="70" t="n"/>
-      <c r="AA12" s="71" t="n"/>
+      <c r="Y12" s="27" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="Z12" s="27" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="AA12" s="27" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="AB12" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="13">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="36" t="inlineStr">
-        <is>
-          <t>Clean Wood Chips</t>
-        </is>
-      </c>
-      <c r="C13" s="78" t="inlineStr">
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="53" t="inlineStr">
         <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="D13" s="78" t="inlineStr">
+      <c r="D13" s="35" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E13" s="78" t="inlineStr">
+      <c r="E13" s="35" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="F13" s="60" t="inlineStr">
+      <c r="F13" s="35" t="inlineStr">
         <is>
           <t>21.00</t>
         </is>
       </c>
-      <c r="G13" s="45" t="inlineStr">
-        <is>
-          <t>Clean Wood Chips</t>
-        </is>
-      </c>
-      <c r="H13" s="59" t="inlineStr">
+      <c r="G13" s="22" t="n"/>
+      <c r="H13" s="68" t="inlineStr">
         <is>
           <t>47.50</t>
         </is>
       </c>
-      <c r="I13" s="59" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>41.25</t>
         </is>
       </c>
-      <c r="J13" s="59" t="inlineStr">
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="K13" s="59" t="inlineStr">
+      <c r="K13" s="21" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="L13" s="59" t="inlineStr">
+      <c r="L13" s="21" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="M13" s="59" t="inlineStr">
+      <c r="M13" s="21" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="N13" s="59" t="inlineStr">
+      <c r="N13" s="21" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="O13" s="59" t="inlineStr">
+      <c r="O13" s="21" t="inlineStr">
         <is>
           <t>32.25</t>
         </is>
       </c>
-      <c r="P13" s="59" t="inlineStr">
+      <c r="P13" s="21" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="Q13" s="59" t="inlineStr">
+      <c r="Q13" s="21" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="R13" s="59" t="inlineStr">
+      <c r="R13" s="21" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="S13" s="59" t="inlineStr">
+      <c r="S13" s="21" t="inlineStr">
         <is>
           <t>29.50</t>
         </is>
       </c>
-      <c r="T13" s="59" t="inlineStr">
+      <c r="T13" s="21" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="U13" s="59" t="inlineStr">
+      <c r="U13" s="21" t="inlineStr">
         <is>
           <t>28.75</t>
         </is>
       </c>
-      <c r="V13" s="59" t="inlineStr">
+      <c r="V13" s="21" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="W13" s="59" t="inlineStr">
+      <c r="W13" s="21" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="X13" s="59" t="inlineStr">
+      <c r="X13" s="21" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="Y13" s="59" t="n"/>
-      <c r="Z13" s="59" t="n"/>
-      <c r="AA13" s="60" t="n"/>
+      <c r="Y13" s="21" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="Z13" s="21" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="AA13" s="21" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="AB13" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>Play Area &amp; Ground Cover</t>
-        </is>
-      </c>
-      <c r="B14" s="25" t="inlineStr">
-        <is>
-          <t>Wood Chips</t>
-        </is>
-      </c>
-      <c r="C14" s="77" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="52" t="inlineStr">
         <is>
           <t>11.75</t>
         </is>
       </c>
-      <c r="D14" s="77" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>11.50</t>
         </is>
       </c>
-      <c r="E14" s="77" t="inlineStr">
+      <c r="E14" s="34" t="inlineStr">
         <is>
           <t>10.75</t>
         </is>
       </c>
-      <c r="F14" s="58" t="inlineStr">
+      <c r="F14" s="34" t="inlineStr">
         <is>
           <t>10.50</t>
         </is>
       </c>
-      <c r="G14" s="44" t="inlineStr">
-        <is>
-          <t>Wood Chips</t>
-        </is>
-      </c>
-      <c r="H14" s="57" t="inlineStr">
+      <c r="G14" s="20" t="n"/>
+      <c r="H14" s="67" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="I14" s="57" t="inlineStr">
+      <c r="I14" s="19" t="inlineStr">
         <is>
           <t>29.50</t>
         </is>
       </c>
-      <c r="J14" s="57" t="inlineStr">
+      <c r="J14" s="19" t="inlineStr">
         <is>
           <t>26.00</t>
         </is>
       </c>
-      <c r="K14" s="57" t="inlineStr">
+      <c r="K14" s="19" t="inlineStr">
         <is>
           <t>24.25</t>
         </is>
       </c>
-      <c r="L14" s="57" t="inlineStr">
+      <c r="L14" s="19" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="M14" s="57" t="inlineStr">
+      <c r="M14" s="19" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="N14" s="57" t="inlineStr">
+      <c r="N14" s="19" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="O14" s="57" t="inlineStr">
+      <c r="O14" s="19" t="inlineStr">
         <is>
           <t>21.50</t>
         </is>
       </c>
-      <c r="P14" s="57" t="inlineStr">
+      <c r="P14" s="19" t="inlineStr">
         <is>
           <t>21.00</t>
         </is>
       </c>
-      <c r="Q14" s="57" t="inlineStr">
+      <c r="Q14" s="19" t="inlineStr">
         <is>
           <t>20.25</t>
         </is>
       </c>
-      <c r="R14" s="57" t="inlineStr">
+      <c r="R14" s="19" t="inlineStr">
         <is>
           <t>19.50</t>
         </is>
       </c>
-      <c r="S14" s="57" t="inlineStr">
+      <c r="S14" s="19" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="T14" s="57" t="inlineStr">
+      <c r="T14" s="19" t="inlineStr">
         <is>
           <t>18.50</t>
         </is>
       </c>
-      <c r="U14" s="57" t="inlineStr">
+      <c r="U14" s="19" t="inlineStr">
         <is>
           <t>18.25</t>
         </is>
       </c>
-      <c r="V14" s="57" t="inlineStr">
+      <c r="V14" s="19" t="inlineStr">
         <is>
           <t>17.75</t>
         </is>
       </c>
-      <c r="W14" s="57" t="inlineStr">
+      <c r="W14" s="19" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="X14" s="57" t="inlineStr">
+      <c r="X14" s="19" t="inlineStr">
         <is>
           <t>15.75</t>
         </is>
       </c>
-      <c r="Y14" s="57" t="n"/>
-      <c r="Z14" s="57" t="n"/>
-      <c r="AA14" s="58" t="n"/>
+      <c r="Y14" s="19" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="Z14" s="19" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="AA14" s="19" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="AB14" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="15">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="24" t="inlineStr">
-        <is>
-          <t>Compost</t>
-        </is>
-      </c>
-      <c r="C15" s="78" t="inlineStr">
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="59" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="D15" s="78" t="inlineStr">
+      <c r="D15" s="35" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="E15" s="78" t="inlineStr">
+      <c r="E15" s="35" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="F15" s="60" t="inlineStr">
+      <c r="F15" s="35" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="G15" s="43" t="inlineStr">
-        <is>
-          <t>Compost</t>
-        </is>
-      </c>
-      <c r="H15" s="59" t="inlineStr">
+      <c r="G15" s="22" t="n"/>
+      <c r="H15" s="74" t="inlineStr">
         <is>
           <t>52.50</t>
         </is>
       </c>
-      <c r="I15" s="59" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>46.25</t>
         </is>
       </c>
-      <c r="J15" s="59" t="inlineStr">
+      <c r="J15" s="21" t="inlineStr">
         <is>
           <t>42.50</t>
         </is>
       </c>
-      <c r="K15" s="59" t="inlineStr">
+      <c r="K15" s="21" t="inlineStr">
         <is>
           <t>40.50</t>
         </is>
       </c>
-      <c r="L15" s="59" t="inlineStr">
+      <c r="L15" s="21" t="inlineStr">
         <is>
           <t>39.25</t>
         </is>
       </c>
-      <c r="M15" s="59" t="inlineStr">
+      <c r="M15" s="21" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="N15" s="59" t="inlineStr">
+      <c r="N15" s="21" t="inlineStr">
         <is>
           <t>37.25</t>
         </is>
       </c>
-      <c r="O15" s="59" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="P15" s="59" t="inlineStr">
+      <c r="P15" s="21" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="Q15" s="59" t="inlineStr">
+      <c r="Q15" s="21" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="R15" s="59" t="inlineStr">
+      <c r="R15" s="21" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="S15" s="59" t="inlineStr">
+      <c r="S15" s="21" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="T15" s="59" t="inlineStr">
+      <c r="T15" s="21" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="U15" s="59" t="inlineStr">
+      <c r="U15" s="21" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="V15" s="59" t="inlineStr">
+      <c r="V15" s="21" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="W15" s="59" t="inlineStr">
+      <c r="W15" s="21" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="X15" s="59" t="inlineStr">
+      <c r="X15" s="21" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="Y15" s="59" t="n"/>
-      <c r="Z15" s="59" t="n"/>
-      <c r="AA15" s="60" t="n"/>
+      <c r="Y15" s="21" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="Z15" s="21" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="AA15" s="21" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="AB15" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="16">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="25" t="inlineStr">
-        <is>
-          <t>Leaf Compost</t>
-        </is>
-      </c>
-      <c r="C16" s="77" t="inlineStr">
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="52" t="inlineStr">
         <is>
           <t>17.25</t>
         </is>
       </c>
-      <c r="D16" s="77" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="E16" s="77" t="inlineStr">
+      <c r="E16" s="34" t="inlineStr">
         <is>
           <t>16.00</t>
         </is>
       </c>
-      <c r="F16" s="58" t="inlineStr">
+      <c r="F16" s="34" t="inlineStr">
         <is>
           <t>15.50</t>
         </is>
       </c>
-      <c r="G16" s="44" t="inlineStr">
-        <is>
-          <t>Leaf Compost</t>
-        </is>
-      </c>
-      <c r="H16" s="57" t="inlineStr">
+      <c r="G16" s="20" t="n"/>
+      <c r="H16" s="67" t="inlineStr">
         <is>
           <t>41.25</t>
         </is>
       </c>
-      <c r="I16" s="57" t="inlineStr">
+      <c r="I16" s="19" t="inlineStr">
         <is>
           <t>35.00</t>
         </is>
       </c>
-      <c r="J16" s="57" t="inlineStr">
+      <c r="J16" s="19" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="K16" s="57" t="inlineStr">
+      <c r="K16" s="19" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="L16" s="57" t="inlineStr">
+      <c r="L16" s="19" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="M16" s="57" t="inlineStr">
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="N16" s="57" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>26.75</t>
         </is>
       </c>
-      <c r="O16" s="57" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>26.75</t>
         </is>
       </c>
-      <c r="P16" s="57" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>26.00</t>
         </is>
       </c>
-      <c r="Q16" s="57" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
         <is>
           <t>25.25</t>
         </is>
       </c>
-      <c r="R16" s="57" t="inlineStr">
+      <c r="R16" s="19" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="S16" s="57" t="inlineStr">
+      <c r="S16" s="19" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="T16" s="57" t="inlineStr">
+      <c r="T16" s="19" t="inlineStr">
         <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="U16" s="57" t="inlineStr">
+      <c r="U16" s="19" t="inlineStr">
         <is>
           <t>23.25</t>
         </is>
       </c>
-      <c r="V16" s="57" t="inlineStr">
+      <c r="V16" s="19" t="inlineStr">
         <is>
           <t>22.75</t>
         </is>
       </c>
-      <c r="W16" s="57" t="inlineStr">
+      <c r="W16" s="19" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="X16" s="57" t="inlineStr">
+      <c r="X16" s="19" t="inlineStr">
         <is>
           <t>20.75</t>
         </is>
       </c>
-      <c r="Y16" s="57" t="n"/>
-      <c r="Z16" s="57" t="n"/>
-      <c r="AA16" s="58" t="n"/>
+      <c r="Y16" s="19" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="Z16" s="19" t="inlineStr">
+        <is>
+          <t>19.25</t>
+        </is>
+      </c>
+      <c r="AA16" s="19" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="AB16" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="17">
-      <c r="A17" s="5" t="n"/>
-      <c r="B17" s="50" t="inlineStr">
-        <is>
-          <t>Mushroom Soil</t>
-        </is>
-      </c>
-      <c r="C17" s="82" t="inlineStr">
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="60" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="D17" s="82" t="inlineStr">
+      <c r="D17" s="37" t="inlineStr">
         <is>
           <t>9.75</t>
         </is>
       </c>
-      <c r="E17" s="82" t="inlineStr">
+      <c r="E17" s="37" t="inlineStr">
         <is>
           <t>9.25</t>
         </is>
       </c>
-      <c r="F17" s="74" t="inlineStr">
+      <c r="F17" s="37" t="inlineStr">
         <is>
           <t>9.00</t>
         </is>
       </c>
-      <c r="G17" s="45" t="inlineStr">
-        <is>
-          <t>Mushroom Soil</t>
-        </is>
-      </c>
-      <c r="H17" s="72" t="inlineStr">
+      <c r="G17" s="31" t="n"/>
+      <c r="H17" s="68" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="I17" s="72" t="inlineStr">
+      <c r="I17" s="29" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="J17" s="72" t="inlineStr">
+      <c r="J17" s="29" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="K17" s="72" t="inlineStr">
+      <c r="K17" s="29" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="L17" s="72" t="inlineStr">
+      <c r="L17" s="29" t="inlineStr">
         <is>
           <t>21.25</t>
         </is>
       </c>
-      <c r="M17" s="72" t="inlineStr">
+      <c r="M17" s="29" t="inlineStr">
         <is>
           <t>20.50</t>
         </is>
       </c>
-      <c r="N17" s="72" t="inlineStr">
+      <c r="N17" s="29" t="inlineStr">
         <is>
           <t>20.25</t>
         </is>
       </c>
-      <c r="O17" s="72" t="inlineStr">
+      <c r="O17" s="29" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="P17" s="72" t="inlineStr">
+      <c r="P17" s="29" t="inlineStr">
         <is>
           <t>19.50</t>
         </is>
       </c>
-      <c r="Q17" s="72" t="inlineStr">
+      <c r="Q17" s="29" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="R17" s="72" t="inlineStr">
+      <c r="R17" s="29" t="inlineStr">
         <is>
           <t>18.00</t>
         </is>
       </c>
-      <c r="S17" s="72" t="inlineStr">
+      <c r="S17" s="29" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="T17" s="72" t="inlineStr">
+      <c r="T17" s="29" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="U17" s="72" t="inlineStr">
+      <c r="U17" s="29" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="V17" s="72" t="inlineStr">
+      <c r="V17" s="29" t="inlineStr">
         <is>
           <t>16.25</t>
         </is>
       </c>
-      <c r="W17" s="72" t="inlineStr">
+      <c r="W17" s="29" t="inlineStr">
         <is>
           <t>15.25</t>
         </is>
       </c>
-      <c r="X17" s="73" t="inlineStr">
+      <c r="X17" s="29" t="inlineStr">
         <is>
           <t>14.25</t>
         </is>
       </c>
-      <c r="Y17" s="73" t="n"/>
-      <c r="Z17" s="73" t="n"/>
-      <c r="AA17" s="74" t="n"/>
+      <c r="Y17" s="30" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="Z17" s="30" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="AA17" s="30" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="AB17" s="31" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="18">
-      <c r="A18" s="5" t="n"/>
-      <c r="B18" s="34" t="inlineStr">
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="61" t="inlineStr">
         <is>
           <t>40% Topsoil/40% Compost/ 20% Sand</t>
         </is>
       </c>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="21" t="inlineStr">
+      <c r="D18" s="8" t="n"/>
+      <c r="E18" s="8" t="n"/>
+      <c r="F18" s="8" t="n"/>
+      <c r="G18" s="8" t="n"/>
+      <c r="H18" s="75" t="inlineStr">
         <is>
           <t>Delivered Cu Yrds.</t>
         </is>
       </c>
-      <c r="H18" s="29" t="n">
+      <c r="I18" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="30" t="n">
+      <c r="J18" s="79" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="29" t="n">
+      <c r="K18" s="78" t="n">
         <v>4</v>
       </c>
-      <c r="K18" s="29" t="n">
+      <c r="L18" s="78" t="n">
         <v>5</v>
       </c>
-      <c r="L18" s="29" t="n">
+      <c r="M18" s="78" t="n">
         <v>6</v>
       </c>
-      <c r="M18" s="29" t="n">
+      <c r="N18" s="78" t="n">
         <v>7</v>
       </c>
-      <c r="N18" s="31" t="n">
+      <c r="O18" s="80" t="n">
         <v>8</v>
       </c>
-      <c r="O18" s="32" t="n">
+      <c r="P18" s="81" t="n">
         <v>9</v>
       </c>
-      <c r="P18" s="29" t="n">
+      <c r="Q18" s="78" t="n">
         <v>10</v>
       </c>
-      <c r="Q18" s="29" t="n">
+      <c r="R18" s="78" t="n">
         <v>11</v>
       </c>
-      <c r="R18" s="29" t="n">
+      <c r="S18" s="78" t="n">
         <v>12</v>
       </c>
-      <c r="S18" s="29" t="n">
+      <c r="T18" s="78" t="n">
         <v>13</v>
       </c>
-      <c r="T18" s="29" t="n">
+      <c r="U18" s="78" t="n">
         <v>14</v>
       </c>
-      <c r="U18" s="29" t="n">
+      <c r="V18" s="78" t="n">
         <v>15</v>
       </c>
-      <c r="V18" s="29" t="inlineStr">
+      <c r="W18" s="78" t="inlineStr">
         <is>
           <t>16-19</t>
         </is>
       </c>
-      <c r="W18" s="33" t="n">
+      <c r="X18" s="82" t="n">
         <v>20</v>
       </c>
-      <c r="X18" s="10" t="n"/>
-      <c r="Y18" s="10" t="n"/>
-      <c r="Z18" s="10" t="n"/>
-      <c r="AA18" s="8" t="n"/>
+      <c r="Y18" s="9" t="n"/>
+      <c r="Z18" s="9" t="n"/>
+      <c r="AA18" s="9" t="n"/>
+      <c r="AB18" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="19">
-      <c r="A19" s="5" t="n"/>
-      <c r="B19" s="54" t="inlineStr">
-        <is>
-          <t>Rain Garden Mix</t>
-        </is>
-      </c>
-      <c r="C19" s="82" t="inlineStr">
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="62" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="D19" s="82" t="inlineStr">
+      <c r="D19" s="37" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="E19" s="82" t="inlineStr">
+      <c r="E19" s="37" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="F19" s="73" t="inlineStr">
+      <c r="F19" s="37" t="inlineStr">
         <is>
           <t>27.50</t>
         </is>
       </c>
-      <c r="G19" s="55" t="inlineStr">
-        <is>
-          <t>Rain Garden Mix</t>
-        </is>
-      </c>
-      <c r="H19" s="83" t="inlineStr">
+      <c r="G19" s="30" t="n"/>
+      <c r="H19" s="76" t="inlineStr">
         <is>
           <t>57.75</t>
         </is>
       </c>
-      <c r="I19" s="83" t="inlineStr">
+      <c r="I19" s="38" t="inlineStr">
         <is>
           <t>51.25</t>
         </is>
       </c>
-      <c r="J19" s="83" t="inlineStr">
+      <c r="J19" s="38" t="inlineStr">
         <is>
           <t>47.50</t>
         </is>
       </c>
-      <c r="K19" s="83" t="inlineStr">
+      <c r="K19" s="38" t="inlineStr">
         <is>
           <t>45.75</t>
         </is>
       </c>
-      <c r="L19" s="83" t="inlineStr">
+      <c r="L19" s="38" t="inlineStr">
         <is>
           <t>44.50</t>
         </is>
       </c>
-      <c r="M19" s="83" t="inlineStr">
+      <c r="M19" s="38" t="inlineStr">
         <is>
           <t>42.25</t>
         </is>
       </c>
-      <c r="N19" s="83" t="inlineStr">
+      <c r="N19" s="38" t="inlineStr">
         <is>
           <t>41.50</t>
         </is>
       </c>
-      <c r="O19" s="83" t="inlineStr">
+      <c r="O19" s="38" t="inlineStr">
         <is>
           <t>40.50</t>
         </is>
       </c>
-      <c r="P19" s="83" t="inlineStr">
+      <c r="P19" s="38" t="inlineStr">
         <is>
           <t>38.75</t>
         </is>
       </c>
-      <c r="Q19" s="83" t="inlineStr">
+      <c r="Q19" s="38" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="R19" s="83" t="inlineStr">
+      <c r="R19" s="38" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="S19" s="83" t="inlineStr">
+      <c r="S19" s="38" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="T19" s="83" t="inlineStr">
+      <c r="T19" s="38" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="U19" s="83" t="inlineStr">
+      <c r="U19" s="38" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="V19" s="83" t="inlineStr">
+      <c r="V19" s="38" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="W19" s="87" t="inlineStr">
+      <c r="W19" s="38" t="inlineStr">
         <is>
           <t>35.00</t>
         </is>
       </c>
-      <c r="X19" s="10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y19" s="10" t="n"/>
-      <c r="Z19" s="10" t="n"/>
-      <c r="AA19" s="8" t="n"/>
+      <c r="X19" s="42" t="n"/>
+      <c r="Y19" s="9" t="n"/>
+      <c r="Z19" s="9" t="n"/>
+      <c r="AA19" s="9" t="n"/>
+      <c r="AB19" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>Soil Amendments</t>
-        </is>
-      </c>
-      <c r="B20" s="53" t="inlineStr">
-        <is>
-          <t>Screened Blend</t>
-        </is>
-      </c>
-      <c r="C20" s="81" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="63" t="inlineStr">
         <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="D20" s="81" t="inlineStr">
+      <c r="D20" s="36" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="E20" s="81" t="inlineStr">
+      <c r="E20" s="36" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="F20" s="70" t="inlineStr">
+      <c r="F20" s="36" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="G20" s="51" t="inlineStr">
-        <is>
-          <t>Screened Blend</t>
-        </is>
-      </c>
+      <c r="G20" s="27" t="n"/>
       <c r="H20" s="77" t="inlineStr">
         <is>
           <t>54.00</t>
         </is>
       </c>
-      <c r="I20" s="77" t="inlineStr">
+      <c r="I20" s="34" t="inlineStr">
         <is>
           <t>47.25</t>
         </is>
       </c>
-      <c r="J20" s="77" t="inlineStr">
+      <c r="J20" s="34" t="inlineStr">
         <is>
           <t>43.75</t>
         </is>
       </c>
-      <c r="K20" s="77" t="inlineStr">
+      <c r="K20" s="34" t="inlineStr">
         <is>
           <t>42.00</t>
         </is>
       </c>
-      <c r="L20" s="77" t="inlineStr">
+      <c r="L20" s="34" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="M20" s="77" t="inlineStr">
+      <c r="M20" s="34" t="inlineStr">
         <is>
           <t>38.50</t>
         </is>
       </c>
-      <c r="N20" s="77" t="inlineStr">
+      <c r="N20" s="34" t="inlineStr">
         <is>
           <t>38.00</t>
         </is>
       </c>
-      <c r="O20" s="77" t="inlineStr">
+      <c r="O20" s="34" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="P20" s="77" t="inlineStr">
+      <c r="P20" s="34" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="Q20" s="77" t="inlineStr">
+      <c r="Q20" s="34" t="inlineStr">
         <is>
           <t>34.75</t>
         </is>
       </c>
-      <c r="R20" s="77" t="inlineStr">
+      <c r="R20" s="34" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="S20" s="77" t="inlineStr">
+      <c r="S20" s="34" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="T20" s="77" t="inlineStr">
+      <c r="T20" s="34" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="U20" s="77" t="inlineStr">
+      <c r="U20" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="V20" s="77" t="inlineStr">
+      <c r="V20" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="W20" s="58" t="inlineStr">
+      <c r="W20" s="34" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="X20" s="10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y20" s="10" t="n"/>
-      <c r="Z20" s="10" t="n"/>
-      <c r="AA20" s="8" t="n"/>
+      <c r="X20" s="20" t="n"/>
+      <c r="Y20" s="9" t="n"/>
+      <c r="Z20" s="9" t="n"/>
+      <c r="AA20" s="9" t="n"/>
+      <c r="AB20" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="21">
-      <c r="A21" s="5" t="n"/>
-      <c r="B21" s="52" t="inlineStr">
-        <is>
-          <t>Screened Topsoil</t>
-        </is>
-      </c>
-      <c r="C21" s="83" t="inlineStr">
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="64" t="inlineStr">
         <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="D21" s="83" t="inlineStr">
+      <c r="D21" s="38" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="E21" s="83" t="inlineStr">
+      <c r="E21" s="38" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="F21" s="84" t="inlineStr">
+      <c r="F21" s="38" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="G21" s="52" t="inlineStr">
-        <is>
-          <t>Screened Topsoil</t>
-        </is>
-      </c>
-      <c r="H21" s="77" t="inlineStr">
+      <c r="G21" s="39" t="n"/>
+      <c r="H21" s="64" t="inlineStr">
         <is>
           <t>54.00</t>
         </is>
       </c>
-      <c r="I21" s="77" t="inlineStr">
+      <c r="I21" s="34" t="inlineStr">
         <is>
           <t>47.25</t>
         </is>
       </c>
-      <c r="J21" s="77" t="inlineStr">
+      <c r="J21" s="34" t="inlineStr">
         <is>
           <t>43.75</t>
         </is>
       </c>
-      <c r="K21" s="77" t="inlineStr">
+      <c r="K21" s="34" t="inlineStr">
         <is>
           <t>42.00</t>
         </is>
       </c>
-      <c r="L21" s="77" t="inlineStr">
+      <c r="L21" s="34" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="M21" s="77" t="inlineStr">
+      <c r="M21" s="34" t="inlineStr">
         <is>
           <t>38.50</t>
         </is>
       </c>
-      <c r="N21" s="77" t="inlineStr">
+      <c r="N21" s="34" t="inlineStr">
         <is>
           <t>38.00</t>
         </is>
       </c>
-      <c r="O21" s="77" t="inlineStr">
+      <c r="O21" s="34" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="P21" s="77" t="inlineStr">
+      <c r="P21" s="34" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="Q21" s="77" t="inlineStr">
+      <c r="Q21" s="34" t="inlineStr">
         <is>
           <t>34.75</t>
         </is>
       </c>
-      <c r="R21" s="77" t="inlineStr">
+      <c r="R21" s="34" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="S21" s="77" t="inlineStr">
+      <c r="S21" s="34" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="T21" s="77" t="inlineStr">
+      <c r="T21" s="34" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="U21" s="77" t="inlineStr">
+      <c r="U21" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="V21" s="77" t="inlineStr">
+      <c r="V21" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="W21" s="58" t="inlineStr">
+      <c r="W21" s="34" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="X21" s="10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y21" s="10" t="n"/>
-      <c r="Z21" s="10" t="n"/>
-      <c r="AA21" s="8" t="n"/>
+      <c r="X21" s="20" t="n"/>
+      <c r="Y21" s="9" t="n"/>
+      <c r="Z21" s="9" t="n"/>
+      <c r="AA21" s="9" t="n"/>
+      <c r="AB21" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="22">
-      <c r="A22" s="5" t="n"/>
-      <c r="B22" s="25" t="inlineStr">
-        <is>
-          <t>Topsoil</t>
-        </is>
-      </c>
-      <c r="C22" s="81" t="inlineStr">
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="52" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="D22" s="81" t="inlineStr">
+      <c r="D22" s="36" t="inlineStr">
         <is>
           <t>18.50</t>
         </is>
       </c>
-      <c r="E22" s="81" t="inlineStr">
+      <c r="E22" s="36" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="F22" s="70" t="inlineStr">
+      <c r="F22" s="36" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="G22" s="25" t="inlineStr">
-        <is>
-          <t>Topsoil</t>
-        </is>
-      </c>
-      <c r="H22" s="77" t="inlineStr">
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="52" t="inlineStr">
         <is>
           <t>46.00</t>
         </is>
       </c>
-      <c r="I22" s="77" t="inlineStr">
+      <c r="I22" s="34" t="inlineStr">
         <is>
           <t>39.25</t>
         </is>
       </c>
-      <c r="J22" s="77" t="inlineStr">
+      <c r="J22" s="34" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="K22" s="77" t="inlineStr">
+      <c r="K22" s="34" t="inlineStr">
         <is>
           <t>34.25</t>
         </is>
       </c>
-      <c r="L22" s="77" t="inlineStr">
+      <c r="L22" s="34" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="M22" s="77" t="inlineStr">
+      <c r="M22" s="34" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="N22" s="77" t="inlineStr">
+      <c r="N22" s="34" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="O22" s="77" t="inlineStr">
+      <c r="O22" s="34" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="P22" s="77" t="inlineStr">
+      <c r="P22" s="34" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="Q22" s="77" t="inlineStr">
+      <c r="Q22" s="34" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="R22" s="77" t="inlineStr">
+      <c r="R22" s="34" t="inlineStr">
         <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="S22" s="77" t="inlineStr">
+      <c r="S22" s="34" t="inlineStr">
         <is>
           <t>26.50</t>
         </is>
       </c>
-      <c r="T22" s="77" t="inlineStr">
+      <c r="T22" s="34" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="U22" s="77" t="inlineStr">
+      <c r="U22" s="34" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="V22" s="77" t="inlineStr">
+      <c r="V22" s="34" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="W22" s="58" t="inlineStr">
+      <c r="W22" s="34" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="X22" s="10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y22" s="10" t="n"/>
-      <c r="Z22" s="10" t="n"/>
-      <c r="AA22" s="8" t="n"/>
+      <c r="X22" s="20" t="n"/>
+      <c r="Y22" s="9" t="n"/>
+      <c r="Z22" s="9" t="n"/>
+      <c r="AA22" s="9" t="n"/>
+      <c r="AB22" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="23">
-      <c r="A23" s="5" t="n"/>
-      <c r="B23" s="24" t="inlineStr">
-        <is>
-          <t>Fill Dirt</t>
-        </is>
-      </c>
-      <c r="C23" s="83" t="inlineStr">
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="59" t="inlineStr">
         <is>
           <t>11.25</t>
         </is>
       </c>
-      <c r="D23" s="83" t="inlineStr">
+      <c r="D23" s="38" t="inlineStr">
         <is>
           <t>11.00</t>
         </is>
       </c>
-      <c r="E23" s="83" t="inlineStr">
+      <c r="E23" s="38" t="inlineStr">
         <is>
           <t>10.25</t>
         </is>
       </c>
-      <c r="F23" s="84" t="inlineStr">
+      <c r="F23" s="38" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="G23" s="24" t="inlineStr">
-        <is>
-          <t>Fill Dirt</t>
-        </is>
-      </c>
-      <c r="H23" s="78" t="inlineStr">
+      <c r="G23" s="39" t="n"/>
+      <c r="H23" s="59" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="I23" s="78" t="inlineStr">
+      <c r="I23" s="35" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="J23" s="78" t="inlineStr">
+      <c r="J23" s="35" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="K23" s="78" t="inlineStr">
+      <c r="K23" s="35" t="inlineStr">
         <is>
           <t>26.75</t>
         </is>
       </c>
-      <c r="L23" s="78" t="inlineStr">
+      <c r="L23" s="35" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="M23" s="78" t="inlineStr">
+      <c r="M23" s="35" t="inlineStr">
         <is>
           <t>24.25</t>
         </is>
       </c>
-      <c r="N23" s="78" t="inlineStr">
+      <c r="N23" s="35" t="inlineStr">
         <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="O23" s="78" t="inlineStr">
+      <c r="O23" s="35" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="P23" s="78" t="inlineStr">
+      <c r="P23" s="35" t="inlineStr">
         <is>
           <t>21.25</t>
         </is>
       </c>
-      <c r="Q23" s="78" t="inlineStr">
+      <c r="Q23" s="35" t="inlineStr">
         <is>
           <t>20.75</t>
         </is>
       </c>
-      <c r="R23" s="78" t="inlineStr">
+      <c r="R23" s="35" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="S23" s="78" t="inlineStr">
+      <c r="S23" s="35" t="inlineStr">
         <is>
           <t>19.50</t>
         </is>
       </c>
-      <c r="T23" s="78" t="inlineStr">
+      <c r="T23" s="35" t="inlineStr">
         <is>
           <t>19.25</t>
         </is>
       </c>
-      <c r="U23" s="78" t="inlineStr">
+      <c r="U23" s="35" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="V23" s="78" t="inlineStr">
+      <c r="V23" s="35" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="W23" s="60" t="inlineStr">
+      <c r="W23" s="35" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="X23" s="10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y23" s="10" t="n"/>
-      <c r="Z23" s="10" t="n"/>
-      <c r="AA23" s="8" t="n"/>
+      <c r="X23" s="22" t="n"/>
+      <c r="Y23" s="9" t="n"/>
+      <c r="Z23" s="9" t="n"/>
+      <c r="AA23" s="9" t="n"/>
+      <c r="AB23" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="B24" s="41" t="inlineStr">
-        <is>
-          <t>Topsoil Overs</t>
-        </is>
-      </c>
-      <c r="C24" s="85" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="65" t="inlineStr">
         <is>
           <t>9.00</t>
         </is>
       </c>
-      <c r="D24" s="85" t="inlineStr">
+      <c r="D24" s="40" t="inlineStr">
         <is>
           <t>8.75</t>
         </is>
       </c>
-      <c r="E24" s="85" t="inlineStr">
+      <c r="E24" s="40" t="inlineStr">
         <is>
           <t>8.25</t>
         </is>
       </c>
-      <c r="F24" s="86" t="inlineStr">
+      <c r="F24" s="40" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="G24" s="41" t="inlineStr">
-        <is>
-          <t>Topsoil Overs</t>
-        </is>
-      </c>
-      <c r="H24" s="85" t="inlineStr">
+      <c r="G24" s="41" t="n"/>
+      <c r="H24" s="65" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="I24" s="85" t="inlineStr">
+      <c r="I24" s="40" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="J24" s="85" t="inlineStr">
+      <c r="J24" s="40" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="K24" s="85" t="inlineStr">
+      <c r="K24" s="40" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="L24" s="85" t="inlineStr">
+      <c r="L24" s="40" t="inlineStr">
         <is>
           <t>23.25</t>
         </is>
       </c>
-      <c r="M24" s="85" t="inlineStr">
+      <c r="M24" s="40" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="N24" s="85" t="inlineStr">
+      <c r="N24" s="40" t="inlineStr">
         <is>
           <t>21.50</t>
         </is>
       </c>
-      <c r="O24" s="85" t="inlineStr">
+      <c r="O24" s="40" t="inlineStr">
         <is>
           <t>20.50</t>
         </is>
       </c>
-      <c r="P24" s="85" t="inlineStr">
+      <c r="P24" s="40" t="inlineStr">
         <is>
           <t>19.25</t>
         </is>
       </c>
-      <c r="Q24" s="85" t="inlineStr">
+      <c r="Q24" s="40" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="R24" s="85" t="inlineStr">
+      <c r="R24" s="40" t="inlineStr">
         <is>
           <t>18.00</t>
         </is>
       </c>
-      <c r="S24" s="85" t="inlineStr">
+      <c r="S24" s="40" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="T24" s="85" t="inlineStr">
+      <c r="T24" s="40" t="inlineStr">
         <is>
           <t>17.25</t>
         </is>
       </c>
-      <c r="U24" s="85" t="inlineStr">
+      <c r="U24" s="40" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="V24" s="85" t="inlineStr">
+      <c r="V24" s="40" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="W24" s="88" t="inlineStr">
+      <c r="W24" s="40" t="inlineStr">
         <is>
           <t>15.50</t>
         </is>
       </c>
-      <c r="X24" s="11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y24" s="11" t="n"/>
-      <c r="Z24" s="11" t="n"/>
-      <c r="AA24" s="12" t="n"/>
+      <c r="X24" s="43" t="n"/>
+      <c r="Y24" s="10" t="n"/>
+      <c r="Z24" s="10" t="n"/>
+      <c r="AA24" s="10" t="n"/>
+      <c r="AB24" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/PythonApplication1/2022_Wholesale_Prices.xlsx
+++ b/PythonApplication1/2022_Wholesale_Prices.xlsx
@@ -1508,502 +1508,534 @@
       <c r="B5" s="4" t="n"/>
       <c r="C5" s="51" t="inlineStr">
         <is>
+          <t>Premium Bark</t>
+        </is>
+      </c>
+      <c r="D5" s="32" t="inlineStr">
+        <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="D5" s="32" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="E5" s="32" t="inlineStr">
+      <c r="F5" s="32" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="F5" s="32" t="inlineStr">
+      <c r="G5" s="33" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="G5" s="33" t="n"/>
       <c r="H5" s="66" t="inlineStr">
         <is>
+          <t>Premium Bark</t>
+        </is>
+      </c>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
           <t>50.75</t>
         </is>
       </c>
-      <c r="I5" s="17" t="inlineStr">
+      <c r="J5" s="17" t="inlineStr">
         <is>
           <t>44.75</t>
         </is>
       </c>
-      <c r="J5" s="17" t="inlineStr">
+      <c r="K5" s="17" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="K5" s="17" t="inlineStr">
+      <c r="L5" s="17" t="inlineStr">
         <is>
           <t>39.00</t>
         </is>
       </c>
-      <c r="L5" s="17" t="inlineStr">
+      <c r="M5" s="17" t="inlineStr">
         <is>
           <t>37.75</t>
         </is>
       </c>
-      <c r="M5" s="17" t="inlineStr">
+      <c r="N5" s="17" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="N5" s="17" t="inlineStr">
+      <c r="O5" s="17" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="O5" s="17" t="inlineStr">
+      <c r="P5" s="17" t="inlineStr">
         <is>
           <t>35.50</t>
         </is>
       </c>
-      <c r="P5" s="17" t="inlineStr">
+      <c r="Q5" s="17" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="Q5" s="17" t="inlineStr">
+      <c r="R5" s="17" t="inlineStr">
         <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="R5" s="17" t="inlineStr">
+      <c r="S5" s="17" t="inlineStr">
         <is>
           <t>33.00</t>
         </is>
       </c>
-      <c r="S5" s="17" t="inlineStr">
+      <c r="T5" s="17" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="T5" s="17" t="inlineStr">
+      <c r="U5" s="17" t="inlineStr">
         <is>
           <t>32.00</t>
         </is>
       </c>
-      <c r="U5" s="17" t="inlineStr">
+      <c r="V5" s="17" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="V5" s="17" t="inlineStr">
+      <c r="W5" s="17" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="W5" s="17" t="inlineStr">
+      <c r="X5" s="17" t="inlineStr">
         <is>
           <t>30.25</t>
         </is>
       </c>
-      <c r="X5" s="17" t="inlineStr">
+      <c r="Y5" s="17" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="Y5" s="17" t="inlineStr">
+      <c r="Z5" s="17" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="Z5" s="17" t="inlineStr">
+      <c r="AA5" s="17" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="AA5" s="17" t="inlineStr">
+      <c r="AB5" s="18" t="inlineStr">
         <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="AB5" s="18" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="6">
       <c r="B6" s="4" t="n"/>
       <c r="C6" s="52" t="inlineStr">
         <is>
+          <t>Bark Blend</t>
+        </is>
+      </c>
+      <c r="D6" s="34" t="inlineStr">
+        <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="D6" s="34" t="inlineStr">
+      <c r="E6" s="34" t="inlineStr">
         <is>
           <t>22.25</t>
         </is>
       </c>
-      <c r="E6" s="34" t="inlineStr">
+      <c r="F6" s="34" t="inlineStr">
         <is>
           <t>20.75</t>
         </is>
       </c>
-      <c r="F6" s="34" t="inlineStr">
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="G6" s="20" t="n"/>
       <c r="H6" s="67" t="inlineStr">
         <is>
+          <t>Bark Blend</t>
+        </is>
+      </c>
+      <c r="I6" s="19" t="inlineStr">
+        <is>
           <t>46.75</t>
         </is>
       </c>
-      <c r="I6" s="19" t="inlineStr">
+      <c r="J6" s="19" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="J6" s="19" t="inlineStr">
+      <c r="K6" s="19" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="K6" s="19" t="inlineStr">
+      <c r="L6" s="19" t="inlineStr">
         <is>
           <t>35.00</t>
         </is>
       </c>
-      <c r="L6" s="19" t="inlineStr">
+      <c r="M6" s="19" t="inlineStr">
         <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="M6" s="19" t="inlineStr">
+      <c r="N6" s="19" t="inlineStr">
         <is>
           <t>32.00</t>
         </is>
       </c>
-      <c r="N6" s="19" t="inlineStr">
+      <c r="O6" s="19" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="O6" s="19" t="inlineStr">
+      <c r="P6" s="19" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="P6" s="19" t="inlineStr">
+      <c r="Q6" s="19" t="inlineStr">
         <is>
           <t>30.50</t>
         </is>
       </c>
-      <c r="Q6" s="19" t="inlineStr">
+      <c r="R6" s="19" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="R6" s="19" t="inlineStr">
+      <c r="S6" s="19" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="S6" s="19" t="inlineStr">
+      <c r="T6" s="19" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="T6" s="19" t="inlineStr">
+      <c r="U6" s="19" t="inlineStr">
         <is>
           <t>28.00</t>
         </is>
       </c>
-      <c r="U6" s="19" t="inlineStr">
+      <c r="V6" s="19" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="V6" s="19" t="inlineStr">
+      <c r="W6" s="19" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="W6" s="19" t="inlineStr">
+      <c r="X6" s="19" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="X6" s="19" t="inlineStr">
+      <c r="Y6" s="19" t="inlineStr">
         <is>
           <t>25.25</t>
         </is>
       </c>
-      <c r="Y6" s="19" t="inlineStr">
+      <c r="Z6" s="19" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="Z6" s="19" t="inlineStr">
+      <c r="AA6" s="19" t="inlineStr">
         <is>
           <t>23.75</t>
         </is>
       </c>
-      <c r="AA6" s="19" t="inlineStr">
+      <c r="AB6" s="20" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="AB6" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="6" t="n"/>
       <c r="C7" s="53" t="inlineStr">
         <is>
+          <t>Nature's Blend</t>
+        </is>
+      </c>
+      <c r="D7" s="35" t="inlineStr">
+        <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="D7" s="35" t="inlineStr">
+      <c r="E7" s="35" t="inlineStr">
         <is>
           <t>18.25</t>
         </is>
       </c>
-      <c r="E7" s="35" t="inlineStr">
+      <c r="F7" s="35" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="F7" s="35" t="inlineStr">
+      <c r="G7" s="22" t="inlineStr">
         <is>
           <t>16.00</t>
         </is>
       </c>
-      <c r="G7" s="22" t="n"/>
       <c r="H7" s="68" t="inlineStr">
         <is>
+          <t>Nature's Blend</t>
+        </is>
+      </c>
+      <c r="I7" s="21" t="inlineStr">
+        <is>
           <t>42.75</t>
         </is>
       </c>
-      <c r="I7" s="21" t="inlineStr">
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="J7" s="21" t="inlineStr">
+      <c r="K7" s="21" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="K7" s="21" t="inlineStr">
+      <c r="L7" s="21" t="inlineStr">
         <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="L7" s="21" t="inlineStr">
+      <c r="M7" s="21" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="M7" s="21" t="inlineStr">
+      <c r="N7" s="21" t="inlineStr">
         <is>
           <t>28.00</t>
         </is>
       </c>
-      <c r="N7" s="21" t="inlineStr">
+      <c r="O7" s="21" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="O7" s="21" t="inlineStr">
+      <c r="P7" s="21" t="inlineStr">
         <is>
           <t>27.50</t>
         </is>
       </c>
-      <c r="P7" s="21" t="inlineStr">
+      <c r="Q7" s="21" t="inlineStr">
         <is>
           <t>26.50</t>
         </is>
       </c>
-      <c r="Q7" s="21" t="inlineStr">
+      <c r="R7" s="21" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="R7" s="21" t="inlineStr">
+      <c r="S7" s="21" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="S7" s="21" t="inlineStr">
+      <c r="T7" s="21" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="T7" s="21" t="inlineStr">
+      <c r="U7" s="21" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="U7" s="21" t="inlineStr">
+      <c r="V7" s="21" t="inlineStr">
         <is>
           <t>23.75</t>
         </is>
       </c>
-      <c r="V7" s="21" t="inlineStr">
+      <c r="W7" s="21" t="inlineStr">
         <is>
           <t>23.25</t>
         </is>
       </c>
-      <c r="W7" s="21" t="inlineStr">
+      <c r="X7" s="21" t="inlineStr">
         <is>
           <t>22.25</t>
         </is>
       </c>
-      <c r="X7" s="21" t="inlineStr">
+      <c r="Y7" s="21" t="inlineStr">
         <is>
           <t>21.25</t>
         </is>
       </c>
-      <c r="Y7" s="21" t="inlineStr">
+      <c r="Z7" s="21" t="inlineStr">
         <is>
           <t>20.50</t>
         </is>
       </c>
-      <c r="Z7" s="21" t="inlineStr">
+      <c r="AA7" s="21" t="inlineStr">
         <is>
           <t>19.75</t>
         </is>
       </c>
-      <c r="AA7" s="21" t="inlineStr">
+      <c r="AB7" s="22" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="AB7" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="56.25" r="8">
       <c r="B8" s="4" t="n"/>
       <c r="C8" s="54" t="inlineStr">
         <is>
+          <t>Beauty Bark</t>
+        </is>
+      </c>
+      <c r="D8" s="83" t="inlineStr">
+        <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="D8" s="83" t="inlineStr">
+      <c r="E8" s="83" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="E8" s="83" t="inlineStr">
+      <c r="F8" s="83" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="F8" s="83" t="inlineStr">
+      <c r="G8" s="84" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="G8" s="84" t="n"/>
       <c r="H8" s="69" t="inlineStr">
         <is>
+          <t>Beauty Bark</t>
+        </is>
+      </c>
+      <c r="I8" s="85" t="inlineStr">
+        <is>
           <t>56.50</t>
         </is>
       </c>
-      <c r="I8" s="85" t="inlineStr">
+      <c r="J8" s="86" t="inlineStr">
         <is>
           <t>50.25</t>
         </is>
       </c>
-      <c r="J8" s="86" t="inlineStr">
+      <c r="K8" s="86" t="inlineStr">
         <is>
           <t>46.25</t>
         </is>
       </c>
-      <c r="K8" s="86" t="inlineStr">
+      <c r="L8" s="86" t="inlineStr">
         <is>
           <t>44.50</t>
         </is>
       </c>
-      <c r="L8" s="86" t="inlineStr">
+      <c r="M8" s="86" t="inlineStr">
         <is>
           <t>43.25</t>
         </is>
       </c>
-      <c r="M8" s="86" t="inlineStr">
+      <c r="N8" s="86" t="inlineStr">
         <is>
           <t>41.00</t>
         </is>
       </c>
-      <c r="N8" s="86" t="inlineStr">
+      <c r="O8" s="86" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="O8" s="86" t="inlineStr">
+      <c r="P8" s="86" t="inlineStr">
         <is>
           <t>40.50</t>
         </is>
       </c>
-      <c r="P8" s="86" t="inlineStr">
+      <c r="Q8" s="86" t="inlineStr">
         <is>
           <t>39.50</t>
         </is>
       </c>
-      <c r="Q8" s="86" t="inlineStr">
+      <c r="R8" s="86" t="inlineStr">
         <is>
           <t>38.75</t>
         </is>
       </c>
-      <c r="R8" s="86" t="inlineStr">
+      <c r="S8" s="86" t="inlineStr">
         <is>
           <t>38.00</t>
         </is>
       </c>
-      <c r="S8" s="86" t="inlineStr">
+      <c r="T8" s="86" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="T8" s="86" t="inlineStr">
+      <c r="U8" s="86" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="U8" s="86" t="inlineStr">
+      <c r="V8" s="86" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="V8" s="86" t="inlineStr">
+      <c r="W8" s="86" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="W8" s="86" t="inlineStr">
+      <c r="X8" s="86" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="X8" s="86" t="inlineStr">
+      <c r="Y8" s="86" t="inlineStr">
         <is>
           <t>34.25</t>
         </is>
       </c>
-      <c r="Y8" s="86" t="inlineStr">
+      <c r="Z8" s="86" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="Z8" s="86" t="inlineStr">
+      <c r="AA8" s="86" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="AA8" s="86" t="inlineStr">
+      <c r="AB8" s="87" t="inlineStr">
         <is>
           <t>32.00</t>
         </is>
       </c>
-      <c r="AB8" s="87" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="9">
       <c r="B9" s="4" t="n"/>
@@ -2046,126 +2078,134 @@
       <c r="B10" s="4" t="n"/>
       <c r="C10" s="56" t="inlineStr">
         <is>
+          <t>Dyed Mulch</t>
+        </is>
+      </c>
+      <c r="D10" s="88" t="inlineStr">
+        <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="D10" s="88" t="inlineStr">
+      <c r="E10" s="88" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="E10" s="88" t="inlineStr">
+      <c r="F10" s="88" t="inlineStr">
         <is>
           <t>22.75</t>
         </is>
       </c>
-      <c r="F10" s="88" t="inlineStr">
+      <c r="G10" s="89" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="G10" s="89" t="n"/>
       <c r="H10" s="71" t="inlineStr">
         <is>
+          <t>Dyed Mulch</t>
+        </is>
+      </c>
+      <c r="I10" s="88" t="inlineStr">
+        <is>
           <t>49.50</t>
         </is>
       </c>
-      <c r="I10" s="88" t="inlineStr">
+      <c r="J10" s="88" t="inlineStr">
         <is>
           <t>43.25</t>
         </is>
       </c>
-      <c r="J10" s="88" t="inlineStr">
+      <c r="K10" s="88" t="inlineStr">
         <is>
           <t>39.25</t>
         </is>
       </c>
-      <c r="K10" s="88" t="inlineStr">
+      <c r="L10" s="88" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="L10" s="88" t="inlineStr">
+      <c r="M10" s="88" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="M10" s="88" t="inlineStr">
+      <c r="N10" s="88" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="N10" s="88" t="inlineStr">
+      <c r="O10" s="88" t="inlineStr">
         <is>
           <t>33.75</t>
         </is>
       </c>
-      <c r="O10" s="88" t="inlineStr">
+      <c r="P10" s="88" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="P10" s="88" t="inlineStr">
+      <c r="Q10" s="88" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="Q10" s="88" t="inlineStr">
+      <c r="R10" s="88" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="R10" s="88" t="inlineStr">
+      <c r="S10" s="88" t="inlineStr">
         <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="S10" s="88" t="inlineStr">
+      <c r="T10" s="88" t="inlineStr">
         <is>
           <t>30.50</t>
         </is>
       </c>
-      <c r="T10" s="88" t="inlineStr">
+      <c r="U10" s="88" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="U10" s="88" t="inlineStr">
+      <c r="V10" s="88" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="V10" s="88" t="inlineStr">
+      <c r="W10" s="88" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="W10" s="88" t="inlineStr">
+      <c r="X10" s="88" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="X10" s="88" t="inlineStr">
+      <c r="Y10" s="88" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="Y10" s="88" t="inlineStr">
+      <c r="Z10" s="88" t="inlineStr">
         <is>
           <t>26.50</t>
         </is>
       </c>
-      <c r="Z10" s="88" t="inlineStr">
+      <c r="AA10" s="88" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="AA10" s="88" t="inlineStr">
+      <c r="AB10" s="89" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="AB10" s="89" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="11">
       <c r="A11" s="1" t="n"/>
@@ -2209,752 +2249,800 @@
       <c r="B12" s="4" t="n"/>
       <c r="C12" s="58" t="inlineStr">
         <is>
+          <t>Safe Cover</t>
+        </is>
+      </c>
+      <c r="D12" s="36" t="inlineStr">
+        <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="D12" s="36" t="inlineStr">
+      <c r="E12" s="36" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E12" s="36" t="inlineStr">
+      <c r="F12" s="36" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="F12" s="36" t="inlineStr">
+      <c r="G12" s="28" t="inlineStr">
         <is>
           <t>21.00</t>
         </is>
       </c>
-      <c r="G12" s="28" t="n"/>
       <c r="H12" s="73" t="inlineStr">
         <is>
+          <t>Safe Cover</t>
+        </is>
+      </c>
+      <c r="I12" s="27" t="inlineStr">
+        <is>
           <t>47.50</t>
         </is>
       </c>
-      <c r="I12" s="27" t="inlineStr">
+      <c r="J12" s="27" t="inlineStr">
         <is>
           <t>41.25</t>
         </is>
       </c>
-      <c r="J12" s="27" t="inlineStr">
+      <c r="K12" s="27" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="K12" s="27" t="inlineStr">
+      <c r="L12" s="27" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="L12" s="27" t="inlineStr">
+      <c r="M12" s="27" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="M12" s="27" t="inlineStr">
+      <c r="N12" s="27" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="N12" s="27" t="inlineStr">
+      <c r="O12" s="27" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="O12" s="27" t="inlineStr">
+      <c r="P12" s="27" t="inlineStr">
         <is>
           <t>32.25</t>
         </is>
       </c>
-      <c r="P12" s="27" t="inlineStr">
+      <c r="Q12" s="27" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="Q12" s="27" t="inlineStr">
+      <c r="R12" s="27" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="R12" s="27" t="inlineStr">
+      <c r="S12" s="27" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="S12" s="27" t="inlineStr">
+      <c r="T12" s="27" t="inlineStr">
         <is>
           <t>29.50</t>
         </is>
       </c>
-      <c r="T12" s="27" t="inlineStr">
+      <c r="U12" s="27" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="U12" s="27" t="inlineStr">
+      <c r="V12" s="27" t="inlineStr">
         <is>
           <t>28.75</t>
         </is>
       </c>
-      <c r="V12" s="27" t="inlineStr">
+      <c r="W12" s="27" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="W12" s="27" t="inlineStr">
+      <c r="X12" s="27" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="X12" s="27" t="inlineStr">
+      <c r="Y12" s="27" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="Y12" s="27" t="inlineStr">
+      <c r="Z12" s="27" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="Z12" s="27" t="inlineStr">
+      <c r="AA12" s="27" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="AA12" s="27" t="inlineStr">
+      <c r="AB12" s="28" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="AB12" s="28" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="13">
       <c r="B13" s="4" t="n"/>
       <c r="C13" s="53" t="inlineStr">
         <is>
+          <t>Clean Wood Chips</t>
+        </is>
+      </c>
+      <c r="D13" s="35" t="inlineStr">
+        <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="D13" s="35" t="inlineStr">
+      <c r="E13" s="35" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="E13" s="35" t="inlineStr">
+      <c r="F13" s="35" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="F13" s="35" t="inlineStr">
+      <c r="G13" s="22" t="inlineStr">
         <is>
           <t>21.00</t>
         </is>
       </c>
-      <c r="G13" s="22" t="n"/>
       <c r="H13" s="68" t="inlineStr">
         <is>
+          <t>Clean Wood Chips</t>
+        </is>
+      </c>
+      <c r="I13" s="21" t="inlineStr">
+        <is>
           <t>47.50</t>
         </is>
       </c>
-      <c r="I13" s="21" t="inlineStr">
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>41.25</t>
         </is>
       </c>
-      <c r="J13" s="21" t="inlineStr">
+      <c r="K13" s="21" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="K13" s="21" t="inlineStr">
+      <c r="L13" s="21" t="inlineStr">
         <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="L13" s="21" t="inlineStr">
+      <c r="M13" s="21" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="M13" s="21" t="inlineStr">
+      <c r="N13" s="21" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="N13" s="21" t="inlineStr">
+      <c r="O13" s="21" t="inlineStr">
         <is>
           <t>32.50</t>
         </is>
       </c>
-      <c r="O13" s="21" t="inlineStr">
+      <c r="P13" s="21" t="inlineStr">
         <is>
           <t>32.25</t>
         </is>
       </c>
-      <c r="P13" s="21" t="inlineStr">
+      <c r="Q13" s="21" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="Q13" s="21" t="inlineStr">
+      <c r="R13" s="21" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="R13" s="21" t="inlineStr">
+      <c r="S13" s="21" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="S13" s="21" t="inlineStr">
+      <c r="T13" s="21" t="inlineStr">
         <is>
           <t>29.50</t>
         </is>
       </c>
-      <c r="T13" s="21" t="inlineStr">
+      <c r="U13" s="21" t="inlineStr">
         <is>
           <t>29.00</t>
         </is>
       </c>
-      <c r="U13" s="21" t="inlineStr">
+      <c r="V13" s="21" t="inlineStr">
         <is>
           <t>28.75</t>
         </is>
       </c>
-      <c r="V13" s="21" t="inlineStr">
+      <c r="W13" s="21" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="W13" s="21" t="inlineStr">
+      <c r="X13" s="21" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="X13" s="21" t="inlineStr">
+      <c r="Y13" s="21" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="Y13" s="21" t="inlineStr">
+      <c r="Z13" s="21" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="Z13" s="21" t="inlineStr">
+      <c r="AA13" s="21" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="AA13" s="21" t="inlineStr">
+      <c r="AB13" s="22" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="AB13" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="6" t="n"/>
       <c r="C14" s="52" t="inlineStr">
         <is>
+          <t>Wood Chips</t>
+        </is>
+      </c>
+      <c r="D14" s="34" t="inlineStr">
+        <is>
           <t>11.75</t>
         </is>
       </c>
-      <c r="D14" s="34" t="inlineStr">
+      <c r="E14" s="34" t="inlineStr">
         <is>
           <t>11.50</t>
         </is>
       </c>
-      <c r="E14" s="34" t="inlineStr">
+      <c r="F14" s="34" t="inlineStr">
         <is>
           <t>10.75</t>
         </is>
       </c>
-      <c r="F14" s="34" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>10.50</t>
         </is>
       </c>
-      <c r="G14" s="20" t="n"/>
       <c r="H14" s="67" t="inlineStr">
         <is>
+          <t>Wood Chips</t>
+        </is>
+      </c>
+      <c r="I14" s="19" t="inlineStr">
+        <is>
           <t>35.75</t>
         </is>
       </c>
-      <c r="I14" s="19" t="inlineStr">
+      <c r="J14" s="19" t="inlineStr">
         <is>
           <t>29.50</t>
         </is>
       </c>
-      <c r="J14" s="19" t="inlineStr">
+      <c r="K14" s="19" t="inlineStr">
         <is>
           <t>26.00</t>
         </is>
       </c>
-      <c r="K14" s="19" t="inlineStr">
+      <c r="L14" s="19" t="inlineStr">
         <is>
           <t>24.25</t>
         </is>
       </c>
-      <c r="L14" s="19" t="inlineStr">
+      <c r="M14" s="19" t="inlineStr">
         <is>
           <t>23.00</t>
         </is>
       </c>
-      <c r="M14" s="19" t="inlineStr">
+      <c r="N14" s="19" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="N14" s="19" t="inlineStr">
+      <c r="O14" s="19" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="O14" s="19" t="inlineStr">
+      <c r="P14" s="19" t="inlineStr">
         <is>
           <t>21.50</t>
         </is>
       </c>
-      <c r="P14" s="19" t="inlineStr">
+      <c r="Q14" s="19" t="inlineStr">
         <is>
           <t>21.00</t>
         </is>
       </c>
-      <c r="Q14" s="19" t="inlineStr">
+      <c r="R14" s="19" t="inlineStr">
         <is>
           <t>20.25</t>
         </is>
       </c>
-      <c r="R14" s="19" t="inlineStr">
+      <c r="S14" s="19" t="inlineStr">
         <is>
           <t>19.50</t>
         </is>
       </c>
-      <c r="S14" s="19" t="inlineStr">
+      <c r="T14" s="19" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="T14" s="19" t="inlineStr">
+      <c r="U14" s="19" t="inlineStr">
         <is>
           <t>18.50</t>
         </is>
       </c>
-      <c r="U14" s="19" t="inlineStr">
+      <c r="V14" s="19" t="inlineStr">
         <is>
           <t>18.25</t>
         </is>
       </c>
-      <c r="V14" s="19" t="inlineStr">
+      <c r="W14" s="19" t="inlineStr">
         <is>
           <t>17.75</t>
         </is>
       </c>
-      <c r="W14" s="19" t="inlineStr">
+      <c r="X14" s="19" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="X14" s="19" t="inlineStr">
+      <c r="Y14" s="19" t="inlineStr">
         <is>
           <t>15.75</t>
         </is>
       </c>
-      <c r="Y14" s="19" t="inlineStr">
+      <c r="Z14" s="19" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="Z14" s="19" t="inlineStr">
+      <c r="AA14" s="19" t="inlineStr">
         <is>
           <t>14.25</t>
         </is>
       </c>
-      <c r="AA14" s="19" t="inlineStr">
+      <c r="AB14" s="20" t="inlineStr">
         <is>
           <t>13.50</t>
         </is>
       </c>
-      <c r="AB14" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="15">
       <c r="B15" s="4" t="n"/>
       <c r="C15" s="59" t="inlineStr">
         <is>
+          <t>Compost</t>
+        </is>
+      </c>
+      <c r="D15" s="35" t="inlineStr">
+        <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="D15" s="35" t="inlineStr">
+      <c r="E15" s="35" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="E15" s="35" t="inlineStr">
+      <c r="F15" s="35" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="F15" s="35" t="inlineStr">
+      <c r="G15" s="22" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="G15" s="22" t="n"/>
       <c r="H15" s="74" t="inlineStr">
         <is>
+          <t>Compost</t>
+        </is>
+      </c>
+      <c r="I15" s="21" t="inlineStr">
+        <is>
           <t>52.50</t>
         </is>
       </c>
-      <c r="I15" s="21" t="inlineStr">
+      <c r="J15" s="21" t="inlineStr">
         <is>
           <t>46.25</t>
         </is>
       </c>
-      <c r="J15" s="21" t="inlineStr">
+      <c r="K15" s="21" t="inlineStr">
         <is>
           <t>42.50</t>
         </is>
       </c>
-      <c r="K15" s="21" t="inlineStr">
+      <c r="L15" s="21" t="inlineStr">
         <is>
           <t>40.50</t>
         </is>
       </c>
-      <c r="L15" s="21" t="inlineStr">
+      <c r="M15" s="21" t="inlineStr">
         <is>
           <t>39.25</t>
         </is>
       </c>
-      <c r="M15" s="21" t="inlineStr">
+      <c r="N15" s="21" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="N15" s="21" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
         <is>
           <t>37.25</t>
         </is>
       </c>
-      <c r="O15" s="21" t="inlineStr">
+      <c r="P15" s="21" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="P15" s="21" t="inlineStr">
+      <c r="Q15" s="21" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="Q15" s="21" t="inlineStr">
+      <c r="R15" s="21" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="R15" s="21" t="inlineStr">
+      <c r="S15" s="21" t="inlineStr">
         <is>
           <t>34.50</t>
         </is>
       </c>
-      <c r="S15" s="21" t="inlineStr">
+      <c r="T15" s="21" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="T15" s="21" t="inlineStr">
+      <c r="U15" s="21" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="U15" s="21" t="inlineStr">
+      <c r="V15" s="21" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="V15" s="21" t="inlineStr">
+      <c r="W15" s="21" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="W15" s="21" t="inlineStr">
+      <c r="X15" s="21" t="inlineStr">
         <is>
           <t>31.75</t>
         </is>
       </c>
-      <c r="X15" s="21" t="inlineStr">
+      <c r="Y15" s="21" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="Y15" s="21" t="inlineStr">
+      <c r="Z15" s="21" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="Z15" s="21" t="inlineStr">
+      <c r="AA15" s="21" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="AA15" s="21" t="inlineStr">
+      <c r="AB15" s="22" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="AB15" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="16">
       <c r="B16" s="4" t="n"/>
       <c r="C16" s="52" t="inlineStr">
         <is>
+          <t>Leaf Compost</t>
+        </is>
+      </c>
+      <c r="D16" s="34" t="inlineStr">
+        <is>
           <t>17.25</t>
         </is>
       </c>
-      <c r="D16" s="34" t="inlineStr">
+      <c r="E16" s="34" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="E16" s="34" t="inlineStr">
+      <c r="F16" s="34" t="inlineStr">
         <is>
           <t>16.00</t>
         </is>
       </c>
-      <c r="F16" s="34" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>15.50</t>
         </is>
       </c>
-      <c r="G16" s="20" t="n"/>
       <c r="H16" s="67" t="inlineStr">
         <is>
+          <t>Leaf Compost</t>
+        </is>
+      </c>
+      <c r="I16" s="19" t="inlineStr">
+        <is>
           <t>41.25</t>
         </is>
       </c>
-      <c r="I16" s="19" t="inlineStr">
+      <c r="J16" s="19" t="inlineStr">
         <is>
           <t>35.00</t>
         </is>
       </c>
-      <c r="J16" s="19" t="inlineStr">
+      <c r="K16" s="19" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="K16" s="19" t="inlineStr">
+      <c r="L16" s="19" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="L16" s="19" t="inlineStr">
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="M16" s="19" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>27.25</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>26.75</t>
         </is>
       </c>
-      <c r="O16" s="19" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>26.75</t>
         </is>
       </c>
-      <c r="P16" s="19" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
         <is>
           <t>26.00</t>
         </is>
       </c>
-      <c r="Q16" s="19" t="inlineStr">
+      <c r="R16" s="19" t="inlineStr">
         <is>
           <t>25.25</t>
         </is>
       </c>
-      <c r="R16" s="19" t="inlineStr">
+      <c r="S16" s="19" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="S16" s="19" t="inlineStr">
+      <c r="T16" s="19" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="T16" s="19" t="inlineStr">
+      <c r="U16" s="19" t="inlineStr">
         <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="U16" s="19" t="inlineStr">
+      <c r="V16" s="19" t="inlineStr">
         <is>
           <t>23.25</t>
         </is>
       </c>
-      <c r="V16" s="19" t="inlineStr">
+      <c r="W16" s="19" t="inlineStr">
         <is>
           <t>22.75</t>
         </is>
       </c>
-      <c r="W16" s="19" t="inlineStr">
+      <c r="X16" s="19" t="inlineStr">
         <is>
           <t>21.75</t>
         </is>
       </c>
-      <c r="X16" s="19" t="inlineStr">
+      <c r="Y16" s="19" t="inlineStr">
         <is>
           <t>20.75</t>
         </is>
       </c>
-      <c r="Y16" s="19" t="inlineStr">
+      <c r="Z16" s="19" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="Z16" s="19" t="inlineStr">
+      <c r="AA16" s="19" t="inlineStr">
         <is>
           <t>19.25</t>
         </is>
       </c>
-      <c r="AA16" s="19" t="inlineStr">
+      <c r="AB16" s="20" t="inlineStr">
         <is>
           <t>18.50</t>
         </is>
       </c>
-      <c r="AB16" s="20" t="n"/>
     </row>
     <row customHeight="1" ht="75" r="17">
       <c r="B17" s="4" t="n"/>
       <c r="C17" s="60" t="inlineStr">
         <is>
+          <t>Mushroom Soil</t>
+        </is>
+      </c>
+      <c r="D17" s="37" t="inlineStr">
+        <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="D17" s="37" t="inlineStr">
+      <c r="E17" s="37" t="inlineStr">
         <is>
           <t>9.75</t>
         </is>
       </c>
-      <c r="E17" s="37" t="inlineStr">
+      <c r="F17" s="37" t="inlineStr">
         <is>
           <t>9.25</t>
         </is>
       </c>
-      <c r="F17" s="37" t="inlineStr">
+      <c r="G17" s="31" t="inlineStr">
         <is>
           <t>9.00</t>
         </is>
       </c>
-      <c r="G17" s="31" t="n"/>
       <c r="H17" s="68" t="inlineStr">
         <is>
+          <t>Mushroom Soil</t>
+        </is>
+      </c>
+      <c r="I17" s="29" t="inlineStr">
+        <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="I17" s="29" t="inlineStr">
+      <c r="J17" s="29" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="J17" s="29" t="inlineStr">
+      <c r="K17" s="29" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="K17" s="29" t="inlineStr">
+      <c r="L17" s="29" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="L17" s="29" t="inlineStr">
+      <c r="M17" s="29" t="inlineStr">
         <is>
           <t>21.25</t>
         </is>
       </c>
-      <c r="M17" s="29" t="inlineStr">
+      <c r="N17" s="29" t="inlineStr">
         <is>
           <t>20.50</t>
         </is>
       </c>
-      <c r="N17" s="29" t="inlineStr">
+      <c r="O17" s="29" t="inlineStr">
         <is>
           <t>20.25</t>
         </is>
       </c>
-      <c r="O17" s="29" t="inlineStr">
+      <c r="P17" s="29" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="P17" s="29" t="inlineStr">
+      <c r="Q17" s="29" t="inlineStr">
         <is>
           <t>19.50</t>
         </is>
       </c>
-      <c r="Q17" s="29" t="inlineStr">
+      <c r="R17" s="29" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="R17" s="29" t="inlineStr">
+      <c r="S17" s="29" t="inlineStr">
         <is>
           <t>18.00</t>
         </is>
       </c>
-      <c r="S17" s="29" t="inlineStr">
+      <c r="T17" s="29" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="T17" s="29" t="inlineStr">
+      <c r="U17" s="29" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="U17" s="29" t="inlineStr">
+      <c r="V17" s="29" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="V17" s="29" t="inlineStr">
+      <c r="W17" s="29" t="inlineStr">
         <is>
           <t>16.25</t>
         </is>
       </c>
-      <c r="W17" s="29" t="inlineStr">
+      <c r="X17" s="29" t="inlineStr">
         <is>
           <t>15.25</t>
         </is>
       </c>
-      <c r="X17" s="29" t="inlineStr">
+      <c r="Y17" s="30" t="inlineStr">
         <is>
           <t>14.25</t>
         </is>
       </c>
-      <c r="Y17" s="30" t="inlineStr">
+      <c r="Z17" s="30" t="inlineStr">
         <is>
           <t>13.50</t>
         </is>
       </c>
-      <c r="Z17" s="30" t="inlineStr">
+      <c r="AA17" s="30" t="inlineStr">
         <is>
           <t>12.75</t>
         </is>
       </c>
-      <c r="AA17" s="30" t="inlineStr">
+      <c r="AB17" s="31" t="inlineStr">
         <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="AB17" s="31" t="n"/>
     </row>
     <row customHeight="1" ht="37.5" r="18">
       <c r="B18" s="4" t="n"/>
@@ -3031,106 +3119,114 @@
       <c r="B19" s="4" t="n"/>
       <c r="C19" s="62" t="inlineStr">
         <is>
+          <t>Rain Garden Mix</t>
+        </is>
+      </c>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="D19" s="37" t="inlineStr">
+      <c r="E19" s="37" t="inlineStr">
         <is>
           <t>30.00</t>
         </is>
       </c>
-      <c r="E19" s="37" t="inlineStr">
+      <c r="F19" s="37" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="F19" s="37" t="inlineStr">
+      <c r="G19" s="30" t="inlineStr">
         <is>
           <t>27.50</t>
         </is>
       </c>
-      <c r="G19" s="30" t="n"/>
       <c r="H19" s="76" t="inlineStr">
         <is>
+          <t>Rain Garden Mix</t>
+        </is>
+      </c>
+      <c r="I19" s="38" t="inlineStr">
+        <is>
           <t>57.75</t>
         </is>
       </c>
-      <c r="I19" s="38" t="inlineStr">
+      <c r="J19" s="38" t="inlineStr">
         <is>
           <t>51.25</t>
         </is>
       </c>
-      <c r="J19" s="38" t="inlineStr">
+      <c r="K19" s="38" t="inlineStr">
         <is>
           <t>47.50</t>
         </is>
       </c>
-      <c r="K19" s="38" t="inlineStr">
+      <c r="L19" s="38" t="inlineStr">
         <is>
           <t>45.75</t>
         </is>
       </c>
-      <c r="L19" s="38" t="inlineStr">
+      <c r="M19" s="38" t="inlineStr">
         <is>
           <t>44.50</t>
         </is>
       </c>
-      <c r="M19" s="38" t="inlineStr">
+      <c r="N19" s="38" t="inlineStr">
         <is>
           <t>42.25</t>
         </is>
       </c>
-      <c r="N19" s="38" t="inlineStr">
+      <c r="O19" s="38" t="inlineStr">
         <is>
           <t>41.50</t>
         </is>
       </c>
-      <c r="O19" s="38" t="inlineStr">
+      <c r="P19" s="38" t="inlineStr">
         <is>
           <t>40.50</t>
         </is>
       </c>
-      <c r="P19" s="38" t="inlineStr">
+      <c r="Q19" s="38" t="inlineStr">
         <is>
           <t>38.75</t>
         </is>
       </c>
-      <c r="Q19" s="38" t="inlineStr">
+      <c r="R19" s="38" t="inlineStr">
         <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="R19" s="38" t="inlineStr">
+      <c r="S19" s="38" t="inlineStr">
         <is>
           <t>37.50</t>
         </is>
       </c>
-      <c r="S19" s="38" t="inlineStr">
+      <c r="T19" s="38" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="T19" s="38" t="inlineStr">
+      <c r="U19" s="38" t="inlineStr">
         <is>
           <t>36.75</t>
         </is>
       </c>
-      <c r="U19" s="38" t="inlineStr">
+      <c r="V19" s="38" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="V19" s="38" t="inlineStr">
+      <c r="W19" s="38" t="inlineStr">
         <is>
           <t>36.25</t>
         </is>
       </c>
-      <c r="W19" s="38" t="inlineStr">
+      <c r="X19" s="42" t="inlineStr">
         <is>
           <t>35.00</t>
         </is>
       </c>
-      <c r="X19" s="42" t="n"/>
       <c r="Y19" s="9" t="n"/>
       <c r="Z19" s="9" t="n"/>
       <c r="AA19" s="9" t="n"/>
@@ -3141,106 +3237,114 @@
       <c r="B20" s="6" t="n"/>
       <c r="C20" s="63" t="inlineStr">
         <is>
+          <t>Screened Blend</t>
+        </is>
+      </c>
+      <c r="D20" s="36" t="inlineStr">
+        <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="D20" s="36" t="inlineStr">
+      <c r="E20" s="36" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="E20" s="36" t="inlineStr">
+      <c r="F20" s="36" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="F20" s="36" t="inlineStr">
+      <c r="G20" s="27" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="G20" s="27" t="n"/>
       <c r="H20" s="77" t="inlineStr">
         <is>
+          <t>Screened Blend</t>
+        </is>
+      </c>
+      <c r="I20" s="34" t="inlineStr">
+        <is>
           <t>54.00</t>
         </is>
       </c>
-      <c r="I20" s="34" t="inlineStr">
+      <c r="J20" s="34" t="inlineStr">
         <is>
           <t>47.25</t>
         </is>
       </c>
-      <c r="J20" s="34" t="inlineStr">
+      <c r="K20" s="34" t="inlineStr">
         <is>
           <t>43.75</t>
         </is>
       </c>
-      <c r="K20" s="34" t="inlineStr">
+      <c r="L20" s="34" t="inlineStr">
         <is>
           <t>42.00</t>
         </is>
       </c>
-      <c r="L20" s="34" t="inlineStr">
+      <c r="M20" s="34" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="M20" s="34" t="inlineStr">
+      <c r="N20" s="34" t="inlineStr">
         <is>
           <t>38.50</t>
         </is>
       </c>
-      <c r="N20" s="34" t="inlineStr">
+      <c r="O20" s="34" t="inlineStr">
         <is>
           <t>38.00</t>
         </is>
       </c>
-      <c r="O20" s="34" t="inlineStr">
+      <c r="P20" s="34" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="P20" s="34" t="inlineStr">
+      <c r="Q20" s="34" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="Q20" s="34" t="inlineStr">
+      <c r="R20" s="34" t="inlineStr">
         <is>
           <t>34.75</t>
         </is>
       </c>
-      <c r="R20" s="34" t="inlineStr">
+      <c r="S20" s="34" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="S20" s="34" t="inlineStr">
+      <c r="T20" s="34" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="T20" s="34" t="inlineStr">
+      <c r="U20" s="34" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="U20" s="34" t="inlineStr">
+      <c r="V20" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="V20" s="34" t="inlineStr">
+      <c r="W20" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="W20" s="34" t="inlineStr">
+      <c r="X20" s="20" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="X20" s="20" t="n"/>
       <c r="Y20" s="9" t="n"/>
       <c r="Z20" s="9" t="n"/>
       <c r="AA20" s="9" t="n"/>
@@ -3250,106 +3354,114 @@
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="64" t="inlineStr">
         <is>
+          <t>Screened Topsoil</t>
+        </is>
+      </c>
+      <c r="D21" s="38" t="inlineStr">
+        <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="D21" s="38" t="inlineStr">
+      <c r="E21" s="38" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="E21" s="38" t="inlineStr">
+      <c r="F21" s="38" t="inlineStr">
         <is>
           <t>24.75</t>
         </is>
       </c>
-      <c r="F21" s="38" t="inlineStr">
+      <c r="G21" s="39" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="G21" s="39" t="n"/>
       <c r="H21" s="64" t="inlineStr">
         <is>
+          <t>Screened Topsoil</t>
+        </is>
+      </c>
+      <c r="I21" s="34" t="inlineStr">
+        <is>
           <t>54.00</t>
         </is>
       </c>
-      <c r="I21" s="34" t="inlineStr">
+      <c r="J21" s="34" t="inlineStr">
         <is>
           <t>47.25</t>
         </is>
       </c>
-      <c r="J21" s="34" t="inlineStr">
+      <c r="K21" s="34" t="inlineStr">
         <is>
           <t>43.75</t>
         </is>
       </c>
-      <c r="K21" s="34" t="inlineStr">
+      <c r="L21" s="34" t="inlineStr">
         <is>
           <t>42.00</t>
         </is>
       </c>
-      <c r="L21" s="34" t="inlineStr">
+      <c r="M21" s="34" t="inlineStr">
         <is>
           <t>40.75</t>
         </is>
       </c>
-      <c r="M21" s="34" t="inlineStr">
+      <c r="N21" s="34" t="inlineStr">
         <is>
           <t>38.50</t>
         </is>
       </c>
-      <c r="N21" s="34" t="inlineStr">
+      <c r="O21" s="34" t="inlineStr">
         <is>
           <t>38.00</t>
         </is>
       </c>
-      <c r="O21" s="34" t="inlineStr">
+      <c r="P21" s="34" t="inlineStr">
         <is>
           <t>37.00</t>
         </is>
       </c>
-      <c r="P21" s="34" t="inlineStr">
+      <c r="Q21" s="34" t="inlineStr">
         <is>
           <t>35.25</t>
         </is>
       </c>
-      <c r="Q21" s="34" t="inlineStr">
+      <c r="R21" s="34" t="inlineStr">
         <is>
           <t>34.75</t>
         </is>
       </c>
-      <c r="R21" s="34" t="inlineStr">
+      <c r="S21" s="34" t="inlineStr">
         <is>
           <t>34.00</t>
         </is>
       </c>
-      <c r="S21" s="34" t="inlineStr">
+      <c r="T21" s="34" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="T21" s="34" t="inlineStr">
+      <c r="U21" s="34" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="U21" s="34" t="inlineStr">
+      <c r="V21" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="V21" s="34" t="inlineStr">
+      <c r="W21" s="34" t="inlineStr">
         <is>
           <t>32.75</t>
         </is>
       </c>
-      <c r="W21" s="34" t="inlineStr">
+      <c r="X21" s="20" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="X21" s="20" t="n"/>
       <c r="Y21" s="9" t="n"/>
       <c r="Z21" s="9" t="n"/>
       <c r="AA21" s="9" t="n"/>
@@ -3359,106 +3471,114 @@
       <c r="B22" s="4" t="n"/>
       <c r="C22" s="52" t="inlineStr">
         <is>
+          <t>Topsoil</t>
+        </is>
+      </c>
+      <c r="D22" s="36" t="inlineStr">
+        <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="D22" s="36" t="inlineStr">
+      <c r="E22" s="36" t="inlineStr">
         <is>
           <t>18.50</t>
         </is>
       </c>
-      <c r="E22" s="36" t="inlineStr">
+      <c r="F22" s="36" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="F22" s="36" t="inlineStr">
+      <c r="G22" s="27" t="inlineStr">
         <is>
           <t>17.00</t>
         </is>
       </c>
-      <c r="G22" s="27" t="n"/>
       <c r="H22" s="52" t="inlineStr">
         <is>
+          <t>Topsoil</t>
+        </is>
+      </c>
+      <c r="I22" s="34" t="inlineStr">
+        <is>
           <t>46.00</t>
         </is>
       </c>
-      <c r="I22" s="34" t="inlineStr">
+      <c r="J22" s="34" t="inlineStr">
         <is>
           <t>39.25</t>
         </is>
       </c>
-      <c r="J22" s="34" t="inlineStr">
+      <c r="K22" s="34" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="K22" s="34" t="inlineStr">
+      <c r="L22" s="34" t="inlineStr">
         <is>
           <t>34.25</t>
         </is>
       </c>
-      <c r="L22" s="34" t="inlineStr">
+      <c r="M22" s="34" t="inlineStr">
         <is>
           <t>33.25</t>
         </is>
       </c>
-      <c r="M22" s="34" t="inlineStr">
+      <c r="N22" s="34" t="inlineStr">
         <is>
           <t>31.25</t>
         </is>
       </c>
-      <c r="N22" s="34" t="inlineStr">
+      <c r="O22" s="34" t="inlineStr">
         <is>
           <t>30.75</t>
         </is>
       </c>
-      <c r="O22" s="34" t="inlineStr">
+      <c r="P22" s="34" t="inlineStr">
         <is>
           <t>29.75</t>
         </is>
       </c>
-      <c r="P22" s="34" t="inlineStr">
+      <c r="Q22" s="34" t="inlineStr">
         <is>
           <t>28.25</t>
         </is>
       </c>
-      <c r="Q22" s="34" t="inlineStr">
+      <c r="R22" s="34" t="inlineStr">
         <is>
           <t>27.75</t>
         </is>
       </c>
-      <c r="R22" s="34" t="inlineStr">
+      <c r="S22" s="34" t="inlineStr">
         <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="S22" s="34" t="inlineStr">
+      <c r="T22" s="34" t="inlineStr">
         <is>
           <t>26.50</t>
         </is>
       </c>
-      <c r="T22" s="34" t="inlineStr">
+      <c r="U22" s="34" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="U22" s="34" t="inlineStr">
+      <c r="V22" s="34" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="V22" s="34" t="inlineStr">
+      <c r="W22" s="34" t="inlineStr">
         <is>
           <t>25.75</t>
         </is>
       </c>
-      <c r="W22" s="34" t="inlineStr">
+      <c r="X22" s="20" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="X22" s="20" t="n"/>
       <c r="Y22" s="9" t="n"/>
       <c r="Z22" s="9" t="n"/>
       <c r="AA22" s="9" t="n"/>
@@ -3468,106 +3588,114 @@
       <c r="B23" s="4" t="n"/>
       <c r="C23" s="59" t="inlineStr">
         <is>
+          <t>Fill Dirt</t>
+        </is>
+      </c>
+      <c r="D23" s="38" t="inlineStr">
+        <is>
           <t>11.25</t>
         </is>
       </c>
-      <c r="D23" s="38" t="inlineStr">
+      <c r="E23" s="38" t="inlineStr">
         <is>
           <t>11.00</t>
         </is>
       </c>
-      <c r="E23" s="38" t="inlineStr">
+      <c r="F23" s="38" t="inlineStr">
         <is>
           <t>10.25</t>
         </is>
       </c>
-      <c r="F23" s="38" t="inlineStr">
+      <c r="G23" s="39" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="G23" s="39" t="n"/>
       <c r="H23" s="59" t="inlineStr">
         <is>
+          <t>Fill Dirt</t>
+        </is>
+      </c>
+      <c r="I23" s="35" t="inlineStr">
+        <is>
           <t>38.25</t>
         </is>
       </c>
-      <c r="I23" s="35" t="inlineStr">
+      <c r="J23" s="35" t="inlineStr">
         <is>
           <t>31.50</t>
         </is>
       </c>
-      <c r="J23" s="35" t="inlineStr">
+      <c r="K23" s="35" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="K23" s="35" t="inlineStr">
+      <c r="L23" s="35" t="inlineStr">
         <is>
           <t>26.75</t>
         </is>
       </c>
-      <c r="L23" s="35" t="inlineStr">
+      <c r="M23" s="35" t="inlineStr">
         <is>
           <t>25.50</t>
         </is>
       </c>
-      <c r="M23" s="35" t="inlineStr">
+      <c r="N23" s="35" t="inlineStr">
         <is>
           <t>24.25</t>
         </is>
       </c>
-      <c r="N23" s="35" t="inlineStr">
+      <c r="O23" s="35" t="inlineStr">
         <is>
           <t>23.50</t>
         </is>
       </c>
-      <c r="O23" s="35" t="inlineStr">
+      <c r="P23" s="35" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="P23" s="35" t="inlineStr">
+      <c r="Q23" s="35" t="inlineStr">
         <is>
           <t>21.25</t>
         </is>
       </c>
-      <c r="Q23" s="35" t="inlineStr">
+      <c r="R23" s="35" t="inlineStr">
         <is>
           <t>20.75</t>
         </is>
       </c>
-      <c r="R23" s="35" t="inlineStr">
+      <c r="S23" s="35" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="S23" s="35" t="inlineStr">
+      <c r="T23" s="35" t="inlineStr">
         <is>
           <t>19.50</t>
         </is>
       </c>
-      <c r="T23" s="35" t="inlineStr">
+      <c r="U23" s="35" t="inlineStr">
         <is>
           <t>19.25</t>
         </is>
       </c>
-      <c r="U23" s="35" t="inlineStr">
+      <c r="V23" s="35" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="V23" s="35" t="inlineStr">
+      <c r="W23" s="35" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="W23" s="35" t="inlineStr">
+      <c r="X23" s="22" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="X23" s="22" t="n"/>
       <c r="Y23" s="9" t="n"/>
       <c r="Z23" s="9" t="n"/>
       <c r="AA23" s="9" t="n"/>
@@ -3578,106 +3706,114 @@
       <c r="B24" s="6" t="n"/>
       <c r="C24" s="65" t="inlineStr">
         <is>
+          <t>Topsoil Overs</t>
+        </is>
+      </c>
+      <c r="D24" s="40" t="inlineStr">
+        <is>
           <t>9.00</t>
         </is>
       </c>
-      <c r="D24" s="40" t="inlineStr">
+      <c r="E24" s="40" t="inlineStr">
         <is>
           <t>8.75</t>
         </is>
       </c>
-      <c r="E24" s="40" t="inlineStr">
+      <c r="F24" s="40" t="inlineStr">
         <is>
           <t>8.25</t>
         </is>
       </c>
-      <c r="F24" s="40" t="inlineStr">
+      <c r="G24" s="41" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="G24" s="41" t="n"/>
       <c r="H24" s="65" t="inlineStr">
         <is>
+          <t>Topsoil Overs</t>
+        </is>
+      </c>
+      <c r="I24" s="40" t="inlineStr">
+        <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="I24" s="40" t="inlineStr">
+      <c r="J24" s="40" t="inlineStr">
         <is>
           <t>29.25</t>
         </is>
       </c>
-      <c r="J24" s="40" t="inlineStr">
+      <c r="K24" s="40" t="inlineStr">
         <is>
           <t>26.25</t>
         </is>
       </c>
-      <c r="K24" s="40" t="inlineStr">
+      <c r="L24" s="40" t="inlineStr">
         <is>
           <t>24.50</t>
         </is>
       </c>
-      <c r="L24" s="40" t="inlineStr">
+      <c r="M24" s="40" t="inlineStr">
         <is>
           <t>23.25</t>
         </is>
       </c>
-      <c r="M24" s="40" t="inlineStr">
+      <c r="N24" s="40" t="inlineStr">
         <is>
           <t>22.00</t>
         </is>
       </c>
-      <c r="N24" s="40" t="inlineStr">
+      <c r="O24" s="40" t="inlineStr">
         <is>
           <t>21.50</t>
         </is>
       </c>
-      <c r="O24" s="40" t="inlineStr">
+      <c r="P24" s="40" t="inlineStr">
         <is>
           <t>20.50</t>
         </is>
       </c>
-      <c r="P24" s="40" t="inlineStr">
+      <c r="Q24" s="40" t="inlineStr">
         <is>
           <t>19.25</t>
         </is>
       </c>
-      <c r="Q24" s="40" t="inlineStr">
+      <c r="R24" s="40" t="inlineStr">
         <is>
           <t>18.75</t>
         </is>
       </c>
-      <c r="R24" s="40" t="inlineStr">
+      <c r="S24" s="40" t="inlineStr">
         <is>
           <t>18.00</t>
         </is>
       </c>
-      <c r="S24" s="40" t="inlineStr">
+      <c r="T24" s="40" t="inlineStr">
         <is>
           <t>17.50</t>
         </is>
       </c>
-      <c r="T24" s="40" t="inlineStr">
+      <c r="U24" s="40" t="inlineStr">
         <is>
           <t>17.25</t>
         </is>
       </c>
-      <c r="U24" s="40" t="inlineStr">
+      <c r="V24" s="40" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="V24" s="40" t="inlineStr">
+      <c r="W24" s="40" t="inlineStr">
         <is>
           <t>16.75</t>
         </is>
       </c>
-      <c r="W24" s="40" t="inlineStr">
+      <c r="X24" s="43" t="inlineStr">
         <is>
           <t>15.50</t>
         </is>
       </c>
-      <c r="X24" s="43" t="n"/>
       <c r="Y24" s="10" t="n"/>
       <c r="Z24" s="10" t="n"/>
       <c r="AA24" s="10" t="n"/>
